--- a/data/raw/election/voters-age-sex-education/2023/Afyonkarahisar.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Afyonkarahisar.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:19:48-14643916504" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="47">
   <si>
     <t>Afyonkarahisar</t>
   </si>
@@ -155,6 +154,12 @@
   </si>
   <si>
     <t>Şuhut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +693,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -702,16 +707,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1036,11 +1050,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N472"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="A462" sqref="A462"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1055,24 +1067,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1154,14 +1166,14 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4">
-        <v>4.4489999999999998</v>
-      </c>
-      <c r="H6" s="4">
-        <v>9.4640000000000004</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.927</v>
+      <c r="G6" s="5">
+        <v>4449</v>
+      </c>
+      <c r="H6" s="5">
+        <v>9464</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1927</v>
       </c>
       <c r="J6" s="4">
         <v>33</v>
@@ -1172,8 +1184,8 @@
       <c r="L6" s="4">
         <v>131</v>
       </c>
-      <c r="M6" s="5">
-        <v>16.085000000000001</v>
+      <c r="M6" s="6">
+        <v>16085</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1193,14 +1205,14 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="4">
-        <v>3.7559999999999998</v>
-      </c>
-      <c r="H7" s="4">
-        <v>9.2769999999999992</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2.923</v>
+      <c r="G7" s="5">
+        <v>3756</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9277</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2923</v>
       </c>
       <c r="J7" s="4">
         <v>33</v>
@@ -1211,8 +1223,8 @@
       <c r="L7" s="4">
         <v>60</v>
       </c>
-      <c r="M7" s="5">
-        <v>16.155000000000001</v>
+      <c r="M7" s="6">
+        <v>16155</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1234,14 +1246,14 @@
       <c r="F8" s="4">
         <v>65</v>
       </c>
-      <c r="G8" s="4">
-        <v>3.1459999999999999</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.7090000000000001</v>
-      </c>
-      <c r="I8" s="4">
-        <v>4.0599999999999996</v>
+      <c r="G8" s="5">
+        <v>3146</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3709</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4060</v>
       </c>
       <c r="J8" s="4">
         <v>466</v>
@@ -1252,8 +1264,8 @@
       <c r="L8" s="4">
         <v>58</v>
       </c>
-      <c r="M8" s="5">
-        <v>11.577</v>
+      <c r="M8" s="6">
+        <v>11577</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,14 +1285,14 @@
       <c r="F9" s="4">
         <v>126</v>
       </c>
-      <c r="G9" s="4">
-        <v>3.2069999999999999</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.762</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5.07</v>
+      <c r="G9" s="5">
+        <v>3207</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2762</v>
+      </c>
+      <c r="I9" s="5">
+        <v>5070</v>
       </c>
       <c r="J9" s="4">
         <v>583</v>
@@ -1291,8 +1303,8 @@
       <c r="L9" s="4">
         <v>70</v>
       </c>
-      <c r="M9" s="5">
-        <v>12.192</v>
+      <c r="M9" s="6">
+        <v>12192</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,17 +1323,17 @@
       <c r="E10" s="4">
         <v>44</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.7509999999999999</v>
+      <c r="F10" s="5">
+        <v>1932</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1267</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3671</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3751</v>
       </c>
       <c r="J10" s="4">
         <v>698</v>
@@ -1332,8 +1344,8 @@
       <c r="L10" s="4">
         <v>38</v>
       </c>
-      <c r="M10" s="5">
-        <v>11.531000000000001</v>
+      <c r="M10" s="6">
+        <v>11531</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1350,17 +1362,17 @@
       <c r="E11" s="4">
         <v>191</v>
       </c>
-      <c r="F11" s="4">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1.099</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2.6819999999999999</v>
-      </c>
-      <c r="I11" s="4">
-        <v>4.2060000000000004</v>
+      <c r="F11" s="5">
+        <v>2909</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1099</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2682</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4206</v>
       </c>
       <c r="J11" s="4">
         <v>689</v>
@@ -1371,8 +1383,8 @@
       <c r="L11" s="4">
         <v>64</v>
       </c>
-      <c r="M11" s="5">
-        <v>12.141</v>
+      <c r="M11" s="6">
+        <v>12141</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1391,17 +1403,17 @@
       <c r="E12" s="4">
         <v>435</v>
       </c>
-      <c r="F12" s="4">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.7010000000000001</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.5710000000000002</v>
+      <c r="F12" s="5">
+        <v>2139</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1138</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3701</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3571</v>
       </c>
       <c r="J12" s="4">
         <v>714</v>
@@ -1412,8 +1424,8 @@
       <c r="L12" s="4">
         <v>46</v>
       </c>
-      <c r="M12" s="5">
-        <v>11.9</v>
+      <c r="M12" s="6">
+        <v>11900</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1427,20 +1439,20 @@
       <c r="D13" s="4">
         <v>94</v>
       </c>
-      <c r="E13" s="4">
-        <v>2.516</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.1909999999999998</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.798</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3.0619999999999998</v>
+      <c r="E13" s="5">
+        <v>2516</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2191</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1192</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2798</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3062</v>
       </c>
       <c r="J13" s="4">
         <v>576</v>
@@ -1451,8 +1463,8 @@
       <c r="L13" s="4">
         <v>50</v>
       </c>
-      <c r="M13" s="5">
-        <v>12.608000000000001</v>
+      <c r="M13" s="6">
+        <v>12608</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1471,17 +1483,17 @@
       <c r="E14" s="4">
         <v>780</v>
       </c>
-      <c r="F14" s="4">
-        <v>1.956</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.863</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2.8719999999999999</v>
+      <c r="F14" s="5">
+        <v>1956</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1863</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3686</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2872</v>
       </c>
       <c r="J14" s="4">
         <v>656</v>
@@ -1492,8 +1504,8 @@
       <c r="L14" s="4">
         <v>54</v>
       </c>
-      <c r="M14" s="5">
-        <v>12.081</v>
+      <c r="M14" s="6">
+        <v>12081</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1507,20 +1519,20 @@
       <c r="D15" s="4">
         <v>81</v>
       </c>
-      <c r="E15" s="4">
-        <v>3.593</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.5089999999999999</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.7849999999999999</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.5430000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2.3839999999999999</v>
+      <c r="E15" s="5">
+        <v>3593</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1509</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1785</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2543</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2384</v>
       </c>
       <c r="J15" s="4">
         <v>514</v>
@@ -1531,8 +1543,8 @@
       <c r="L15" s="4">
         <v>44</v>
       </c>
-      <c r="M15" s="5">
-        <v>12.601000000000001</v>
+      <c r="M15" s="6">
+        <v>12601</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1551,17 +1563,17 @@
       <c r="E16" s="4">
         <v>915</v>
       </c>
-      <c r="F16" s="4">
-        <v>1.7949999999999999</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.585</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2.2330000000000001</v>
+      <c r="F16" s="5">
+        <v>1795</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1585</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2696</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2233</v>
       </c>
       <c r="J16" s="4">
         <v>397</v>
@@ -1572,8 +1584,8 @@
       <c r="L16" s="4">
         <v>45</v>
       </c>
-      <c r="M16" s="5">
-        <v>9.8369999999999997</v>
+      <c r="M16" s="6">
+        <v>9837</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1587,20 +1599,20 @@
       <c r="D17" s="4">
         <v>81</v>
       </c>
-      <c r="E17" s="4">
-        <v>3.694</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.4159999999999999</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.425</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.879</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1.42</v>
+      <c r="E17" s="5">
+        <v>3694</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1416</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1425</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1879</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1420</v>
       </c>
       <c r="J17" s="4">
         <v>189</v>
@@ -1611,8 +1623,8 @@
       <c r="L17" s="4">
         <v>50</v>
       </c>
-      <c r="M17" s="5">
-        <v>10.266</v>
+      <c r="M17" s="6">
+        <v>10266</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1628,20 +1640,20 @@
       <c r="D18" s="4">
         <v>11</v>
       </c>
-      <c r="E18" s="4">
-        <v>1.121</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1.754</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.617</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2.0209999999999999</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1.7849999999999999</v>
+      <c r="E18" s="5">
+        <v>1121</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1754</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1617</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2021</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1785</v>
       </c>
       <c r="J18" s="4">
         <v>221</v>
@@ -1652,8 +1664,8 @@
       <c r="L18" s="4">
         <v>35</v>
       </c>
-      <c r="M18" s="5">
-        <v>8.7279999999999998</v>
+      <c r="M18" s="6">
+        <v>8728</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1667,17 +1679,17 @@
       <c r="D19" s="4">
         <v>207</v>
       </c>
-      <c r="E19" s="4">
-        <v>3.7589999999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.147</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1.173</v>
-      </c>
-      <c r="H19" s="4">
-        <v>1.444</v>
+      <c r="E19" s="5">
+        <v>3759</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1147</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1173</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1444</v>
       </c>
       <c r="I19" s="4">
         <v>801</v>
@@ -1691,8 +1703,8 @@
       <c r="L19" s="4">
         <v>56</v>
       </c>
-      <c r="M19" s="5">
-        <v>8.8030000000000008</v>
+      <c r="M19" s="6">
+        <v>8803</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1708,20 +1720,20 @@
       <c r="D20" s="4">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1.4330000000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.3540000000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1.5720000000000001</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1.2949999999999999</v>
+      <c r="E20" s="5">
+        <v>1471</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1433</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1354</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1572</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1295</v>
       </c>
       <c r="J20" s="4">
         <v>133</v>
@@ -1732,8 +1744,8 @@
       <c r="L20" s="4">
         <v>41</v>
       </c>
-      <c r="M20" s="5">
-        <v>7.4320000000000004</v>
+      <c r="M20" s="6">
+        <v>7432</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1747,8 +1759,8 @@
       <c r="D21" s="4">
         <v>316</v>
       </c>
-      <c r="E21" s="4">
-        <v>3.794</v>
+      <c r="E21" s="5">
+        <v>3794</v>
       </c>
       <c r="F21" s="4">
         <v>606</v>
@@ -1771,8 +1783,8 @@
       <c r="L21" s="4">
         <v>43</v>
       </c>
-      <c r="M21" s="5">
-        <v>7.1749999999999998</v>
+      <c r="M21" s="6">
+        <v>7175</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1788,8 +1800,8 @@
       <c r="D22" s="4">
         <v>32</v>
       </c>
-      <c r="E22" s="4">
-        <v>2.2090000000000001</v>
+      <c r="E22" s="5">
+        <v>2209</v>
       </c>
       <c r="F22" s="4">
         <v>712</v>
@@ -1797,8 +1809,8 @@
       <c r="G22" s="4">
         <v>923</v>
       </c>
-      <c r="H22" s="4">
-        <v>1.3520000000000001</v>
+      <c r="H22" s="5">
+        <v>1352</v>
       </c>
       <c r="I22" s="4">
         <v>884</v>
@@ -1812,8 +1824,8 @@
       <c r="L22" s="4">
         <v>31</v>
       </c>
-      <c r="M22" s="5">
-        <v>6.2439999999999998</v>
+      <c r="M22" s="6">
+        <v>6244</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1827,8 +1839,8 @@
       <c r="D23" s="4">
         <v>468</v>
       </c>
-      <c r="E23" s="4">
-        <v>3.9820000000000002</v>
+      <c r="E23" s="5">
+        <v>3982</v>
       </c>
       <c r="F23" s="4">
         <v>279</v>
@@ -1851,8 +1863,8 @@
       <c r="L23" s="4">
         <v>37</v>
       </c>
-      <c r="M23" s="5">
-        <v>6.65</v>
+      <c r="M23" s="6">
+        <v>6650</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1868,8 +1880,8 @@
       <c r="D24" s="4">
         <v>65</v>
       </c>
-      <c r="E24" s="4">
-        <v>2.1589999999999998</v>
+      <c r="E24" s="5">
+        <v>2159</v>
       </c>
       <c r="F24" s="4">
         <v>287</v>
@@ -1892,8 +1904,8 @@
       <c r="L24" s="4">
         <v>30</v>
       </c>
-      <c r="M24" s="5">
-        <v>4.883</v>
+      <c r="M24" s="6">
+        <v>4883</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1907,8 +1919,8 @@
       <c r="D25" s="4">
         <v>623</v>
       </c>
-      <c r="E25" s="4">
-        <v>2.9870000000000001</v>
+      <c r="E25" s="5">
+        <v>2987</v>
       </c>
       <c r="F25" s="4">
         <v>98</v>
@@ -1931,8 +1943,8 @@
       <c r="L25" s="4">
         <v>26</v>
       </c>
-      <c r="M25" s="5">
-        <v>5.1769999999999996</v>
+      <c r="M25" s="6">
+        <v>5177</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1948,8 +1960,8 @@
       <c r="D26" s="4">
         <v>87</v>
       </c>
-      <c r="E26" s="4">
-        <v>1.7809999999999999</v>
+      <c r="E26" s="5">
+        <v>1781</v>
       </c>
       <c r="F26" s="4">
         <v>110</v>
@@ -1972,8 +1984,8 @@
       <c r="L26" s="4">
         <v>15</v>
       </c>
-      <c r="M26" s="5">
-        <v>3.222</v>
+      <c r="M26" s="6">
+        <v>3222</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1987,8 +1999,8 @@
       <c r="D27" s="4">
         <v>579</v>
       </c>
-      <c r="E27" s="4">
-        <v>2.0230000000000001</v>
+      <c r="E27" s="5">
+        <v>2023</v>
       </c>
       <c r="F27" s="4">
         <v>17</v>
@@ -2011,8 +2023,8 @@
       <c r="L27" s="4">
         <v>31</v>
       </c>
-      <c r="M27" s="5">
-        <v>3.6880000000000002</v>
+      <c r="M27" s="6">
+        <v>3688</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2028,8 +2040,8 @@
       <c r="D28" s="4">
         <v>245</v>
       </c>
-      <c r="E28" s="4">
-        <v>1.8959999999999999</v>
+      <c r="E28" s="5">
+        <v>1896</v>
       </c>
       <c r="F28" s="4">
         <v>27</v>
@@ -2052,8 +2064,8 @@
       <c r="L28" s="4">
         <v>36</v>
       </c>
-      <c r="M28" s="5">
-        <v>3.1320000000000001</v>
+      <c r="M28" s="6">
+        <v>3132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2061,14 +2073,14 @@
       <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="4">
-        <v>1.216</v>
+      <c r="C29" s="5">
+        <v>1216</v>
       </c>
       <c r="D29" s="4">
         <v>840</v>
       </c>
-      <c r="E29" s="4">
-        <v>2.153</v>
+      <c r="E29" s="5">
+        <v>2153</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
@@ -2091,47 +2103,47 @@
       <c r="L29" s="4">
         <v>25</v>
       </c>
-      <c r="M29" s="5">
-        <v>4.6280000000000001</v>
+      <c r="M29" s="6">
+        <v>4628</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>2.7829999999999999</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.242</v>
-      </c>
-      <c r="E30" s="5">
-        <v>41.942</v>
-      </c>
-      <c r="F30" s="5">
-        <v>22.515000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>33.917999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>59.686</v>
-      </c>
-      <c r="I30" s="5">
-        <v>44.978999999999999</v>
-      </c>
-      <c r="J30" s="5">
-        <v>6.2190000000000003</v>
-      </c>
-      <c r="K30" s="5">
-        <v>1.3360000000000001</v>
-      </c>
-      <c r="L30" s="5">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="M30" s="5">
-        <v>218.73599999999999</v>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6">
+        <v>2783</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4242</v>
+      </c>
+      <c r="E30" s="6">
+        <v>41942</v>
+      </c>
+      <c r="F30" s="6">
+        <v>22515</v>
+      </c>
+      <c r="G30" s="6">
+        <v>33918</v>
+      </c>
+      <c r="H30" s="6">
+        <v>59686</v>
+      </c>
+      <c r="I30" s="6">
+        <v>44979</v>
+      </c>
+      <c r="J30" s="6">
+        <v>6219</v>
+      </c>
+      <c r="K30" s="6">
+        <v>1336</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1116</v>
+      </c>
+      <c r="M30" s="6">
+        <v>218736</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2210,7 +2222,7 @@
       <c r="L32" s="4">
         <v>2</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="9">
         <v>444</v>
       </c>
     </row>
@@ -2249,7 +2261,7 @@
       <c r="L33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="9">
         <v>428</v>
       </c>
     </row>
@@ -2290,7 +2302,7 @@
       <c r="L34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="9">
         <v>303</v>
       </c>
     </row>
@@ -2329,7 +2341,7 @@
       <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="9">
         <v>268</v>
       </c>
     </row>
@@ -2370,7 +2382,7 @@
       <c r="L36" s="4">
         <v>2</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="9">
         <v>296</v>
       </c>
     </row>
@@ -2409,7 +2421,7 @@
       <c r="L37" s="4">
         <v>1</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="9">
         <v>234</v>
       </c>
     </row>
@@ -2450,7 +2462,7 @@
       <c r="L38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="9">
         <v>283</v>
       </c>
     </row>
@@ -2489,7 +2501,7 @@
       <c r="L39" s="4">
         <v>3</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="9">
         <v>259</v>
       </c>
     </row>
@@ -2530,7 +2542,7 @@
       <c r="L40" s="4">
         <v>2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="9">
         <v>357</v>
       </c>
     </row>
@@ -2569,7 +2581,7 @@
       <c r="L41" s="4">
         <v>2</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="9">
         <v>276</v>
       </c>
     </row>
@@ -2610,7 +2622,7 @@
       <c r="L42" s="4">
         <v>3</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="9">
         <v>275</v>
       </c>
     </row>
@@ -2649,7 +2661,7 @@
       <c r="L43" s="4">
         <v>3</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="9">
         <v>256</v>
       </c>
     </row>
@@ -2690,7 +2702,7 @@
       <c r="L44" s="4">
         <v>1</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="9">
         <v>341</v>
       </c>
     </row>
@@ -2729,7 +2741,7 @@
       <c r="L45" s="4">
         <v>2</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="9">
         <v>345</v>
       </c>
     </row>
@@ -2770,7 +2782,7 @@
       <c r="L46" s="4">
         <v>1</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="9">
         <v>341</v>
       </c>
     </row>
@@ -2809,7 +2821,7 @@
       <c r="L47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="9">
         <v>319</v>
       </c>
     </row>
@@ -2850,7 +2862,7 @@
       <c r="L48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="9">
         <v>331</v>
       </c>
     </row>
@@ -2889,7 +2901,7 @@
       <c r="L49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="9">
         <v>365</v>
       </c>
     </row>
@@ -2930,7 +2942,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="9">
         <v>269</v>
       </c>
     </row>
@@ -2969,7 +2981,7 @@
       <c r="L51" s="4">
         <v>2</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="9">
         <v>341</v>
       </c>
     </row>
@@ -3010,7 +3022,7 @@
       <c r="L52" s="4">
         <v>3</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="9">
         <v>192</v>
       </c>
     </row>
@@ -3049,7 +3061,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="9">
         <v>236</v>
       </c>
     </row>
@@ -3090,7 +3102,7 @@
       <c r="L54" s="4">
         <v>3</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="9">
         <v>297</v>
       </c>
     </row>
@@ -3129,7 +3141,7 @@
       <c r="L55" s="4">
         <v>3</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="9">
         <v>438</v>
       </c>
     </row>
@@ -3137,39 +3149,39 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="7"/>
+      <c r="C56" s="9">
         <v>180</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="9">
         <v>358</v>
       </c>
-      <c r="E56" s="5">
-        <v>2.6480000000000001</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E56" s="6">
+        <v>2648</v>
+      </c>
+      <c r="F56" s="9">
         <v>938</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.6140000000000001</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="G56" s="6">
+        <v>1023</v>
+      </c>
+      <c r="H56" s="6">
+        <v>1614</v>
+      </c>
+      <c r="I56" s="9">
         <v>654</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="9">
         <v>37</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="9">
         <v>3</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="9">
         <v>39</v>
       </c>
-      <c r="M56" s="5">
-        <v>7.4939999999999998</v>
+      <c r="M56" s="6">
+        <v>7494</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3248,7 +3260,7 @@
       <c r="L58" s="4">
         <v>9</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="9">
         <v>399</v>
       </c>
     </row>
@@ -3287,7 +3299,7 @@
       <c r="L59" s="4">
         <v>3</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="9">
         <v>412</v>
       </c>
     </row>
@@ -3328,7 +3340,7 @@
       <c r="L60" s="4">
         <v>5</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="9">
         <v>256</v>
       </c>
     </row>
@@ -3367,7 +3379,7 @@
       <c r="L61" s="4">
         <v>3</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="9">
         <v>281</v>
       </c>
     </row>
@@ -3408,7 +3420,7 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="9">
         <v>229</v>
       </c>
     </row>
@@ -3447,7 +3459,7 @@
       <c r="L63" s="4">
         <v>2</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="9">
         <v>182</v>
       </c>
     </row>
@@ -3488,7 +3500,7 @@
       <c r="L64" s="4">
         <v>1</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="9">
         <v>239</v>
       </c>
     </row>
@@ -3527,7 +3539,7 @@
       <c r="L65" s="4">
         <v>3</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="9">
         <v>210</v>
       </c>
     </row>
@@ -3568,7 +3580,7 @@
       <c r="L66" s="4">
         <v>4</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="9">
         <v>264</v>
       </c>
     </row>
@@ -3607,7 +3619,7 @@
       <c r="L67" s="4">
         <v>2</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="9">
         <v>216</v>
       </c>
     </row>
@@ -3648,7 +3660,7 @@
       <c r="L68" s="4">
         <v>3</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="9">
         <v>227</v>
       </c>
     </row>
@@ -3687,7 +3699,7 @@
       <c r="L69" s="4">
         <v>4</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="9">
         <v>248</v>
       </c>
     </row>
@@ -3728,7 +3740,7 @@
       <c r="L70" s="4">
         <v>4</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="9">
         <v>215</v>
       </c>
     </row>
@@ -3767,7 +3779,7 @@
       <c r="L71" s="4">
         <v>5</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="9">
         <v>252</v>
       </c>
     </row>
@@ -3808,7 +3820,7 @@
       <c r="L72" s="4">
         <v>2</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="9">
         <v>231</v>
       </c>
     </row>
@@ -3847,7 +3859,7 @@
       <c r="L73" s="4">
         <v>5</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="9">
         <v>210</v>
       </c>
     </row>
@@ -3888,7 +3900,7 @@
       <c r="L74" s="4">
         <v>9</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="9">
         <v>222</v>
       </c>
     </row>
@@ -3927,7 +3939,7 @@
       <c r="L75" s="4">
         <v>6</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="9">
         <v>207</v>
       </c>
     </row>
@@ -3968,7 +3980,7 @@
       <c r="L76" s="4">
         <v>5</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="9">
         <v>162</v>
       </c>
     </row>
@@ -4007,7 +4019,7 @@
       <c r="L77" s="4">
         <v>1</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="9">
         <v>184</v>
       </c>
     </row>
@@ -4048,7 +4060,7 @@
       <c r="L78" s="4">
         <v>3</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="9">
         <v>119</v>
       </c>
     </row>
@@ -4087,7 +4099,7 @@
       <c r="L79" s="4">
         <v>5</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="9">
         <v>186</v>
       </c>
     </row>
@@ -4128,7 +4140,7 @@
       <c r="L80" s="4">
         <v>5</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="9">
         <v>222</v>
       </c>
     </row>
@@ -4167,7 +4179,7 @@
       <c r="L81" s="4">
         <v>4</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="9">
         <v>328</v>
       </c>
     </row>
@@ -4175,39 +4187,39 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="7"/>
+      <c r="C82" s="9">
         <v>198</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="9">
         <v>414</v>
       </c>
-      <c r="E82" s="5">
-        <v>1.494</v>
-      </c>
-      <c r="F82" s="5">
+      <c r="E82" s="6">
+        <v>1494</v>
+      </c>
+      <c r="F82" s="9">
         <v>623</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.089</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="G82" s="6">
+        <v>1089</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1197</v>
+      </c>
+      <c r="I82" s="9">
         <v>536</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="9">
         <v>49</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="9">
         <v>5</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="9">
         <v>96</v>
       </c>
-      <c r="M82" s="5">
-        <v>5.7009999999999996</v>
+      <c r="M82" s="6">
+        <v>5701</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4271,8 +4283,8 @@
       <c r="G84" s="4">
         <v>540</v>
       </c>
-      <c r="H84" s="4">
-        <v>1.3109999999999999</v>
+      <c r="H84" s="5">
+        <v>1311</v>
       </c>
       <c r="I84" s="4">
         <v>188</v>
@@ -4286,8 +4298,8 @@
       <c r="L84" s="4">
         <v>37</v>
       </c>
-      <c r="M84" s="5">
-        <v>2.1040000000000001</v>
+      <c r="M84" s="6">
+        <v>2104</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4310,8 +4322,8 @@
       <c r="G85" s="4">
         <v>474</v>
       </c>
-      <c r="H85" s="4">
-        <v>1.2170000000000001</v>
+      <c r="H85" s="5">
+        <v>1217</v>
       </c>
       <c r="I85" s="4">
         <v>319</v>
@@ -4325,8 +4337,8 @@
       <c r="L85" s="4">
         <v>23</v>
       </c>
-      <c r="M85" s="5">
-        <v>2.0619999999999998</v>
+      <c r="M85" s="6">
+        <v>2062</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4366,8 +4378,8 @@
       <c r="L86" s="4">
         <v>19</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.3680000000000001</v>
+      <c r="M86" s="6">
+        <v>1368</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4405,8 +4417,8 @@
       <c r="L87" s="4">
         <v>23</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.3460000000000001</v>
+      <c r="M87" s="6">
+        <v>1346</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4446,8 +4458,8 @@
       <c r="L88" s="4">
         <v>15</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.2370000000000001</v>
+      <c r="M88" s="6">
+        <v>1237</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,8 +4497,8 @@
       <c r="L89" s="4">
         <v>17</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M89" s="6">
+        <v>1314</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4526,8 +4538,8 @@
       <c r="L90" s="4">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.4159999999999999</v>
+      <c r="M90" s="6">
+        <v>1416</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4565,8 +4577,8 @@
       <c r="L91" s="4">
         <v>26</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.35</v>
+      <c r="M91" s="6">
+        <v>1350</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4606,8 +4618,8 @@
       <c r="L92" s="4">
         <v>17</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.4590000000000001</v>
+      <c r="M92" s="6">
+        <v>1459</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4645,8 +4657,8 @@
       <c r="L93" s="4">
         <v>26</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.486</v>
+      <c r="M93" s="6">
+        <v>1486</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4686,8 +4698,8 @@
       <c r="L94" s="4">
         <v>20</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.169</v>
+      <c r="M94" s="6">
+        <v>1169</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4725,8 +4737,8 @@
       <c r="L95" s="4">
         <v>24</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M95" s="6">
+        <v>1267</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4766,8 +4778,8 @@
       <c r="L96" s="4">
         <v>37</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.306</v>
+      <c r="M96" s="6">
+        <v>1306</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4805,8 +4817,8 @@
       <c r="L97" s="4">
         <v>36</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.389</v>
+      <c r="M97" s="6">
+        <v>1389</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4846,8 +4858,8 @@
       <c r="L98" s="4">
         <v>33</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.2330000000000001</v>
+      <c r="M98" s="6">
+        <v>1233</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4885,8 +4897,8 @@
       <c r="L99" s="4">
         <v>36</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.4039999999999999</v>
+      <c r="M99" s="6">
+        <v>1404</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4926,8 +4938,8 @@
       <c r="L100" s="4">
         <v>39</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.427</v>
+      <c r="M100" s="6">
+        <v>1427</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4941,8 +4953,8 @@
       <c r="D101" s="4">
         <v>88</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.0529999999999999</v>
+      <c r="E101" s="5">
+        <v>1053</v>
       </c>
       <c r="F101" s="4">
         <v>45</v>
@@ -4965,8 +4977,8 @@
       <c r="L101" s="4">
         <v>26</v>
       </c>
-      <c r="M101" s="5">
-        <v>1.4410000000000001</v>
+      <c r="M101" s="6">
+        <v>1441</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5006,8 +5018,8 @@
       <c r="L102" s="4">
         <v>27</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.091</v>
+      <c r="M102" s="6">
+        <v>1091</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5045,8 +5057,8 @@
       <c r="L103" s="4">
         <v>25</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.052</v>
+      <c r="M103" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5086,7 +5098,7 @@
       <c r="L104" s="4">
         <v>24</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="9">
         <v>760</v>
       </c>
     </row>
@@ -5125,7 +5137,7 @@
       <c r="L105" s="4">
         <v>19</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="9">
         <v>878</v>
       </c>
     </row>
@@ -5166,7 +5178,7 @@
       <c r="L106" s="4">
         <v>27</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="9">
         <v>827</v>
       </c>
     </row>
@@ -5205,47 +5217,47 @@
       <c r="L107" s="4">
         <v>21</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M107" s="6">
+        <v>1112</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="7"/>
+      <c r="C108" s="9">
         <v>553</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="E108" s="5">
-        <v>9.4130000000000003</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.214</v>
-      </c>
-      <c r="G108" s="5">
-        <v>4.609</v>
-      </c>
-      <c r="H108" s="5">
-        <v>8.2349999999999994</v>
-      </c>
-      <c r="I108" s="5">
-        <v>4.3529999999999998</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="D108" s="6">
+        <v>1043</v>
+      </c>
+      <c r="E108" s="6">
+        <v>9413</v>
+      </c>
+      <c r="F108" s="6">
+        <v>2214</v>
+      </c>
+      <c r="G108" s="6">
+        <v>4609</v>
+      </c>
+      <c r="H108" s="6">
+        <v>8235</v>
+      </c>
+      <c r="I108" s="6">
+        <v>4353</v>
+      </c>
+      <c r="J108" s="9">
         <v>424</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="9">
         <v>42</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="9">
         <v>612</v>
       </c>
-      <c r="M108" s="5">
-        <v>31.498000000000001</v>
+      <c r="M108" s="6">
+        <v>31498</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5324,8 +5336,8 @@
       <c r="L110" s="4">
         <v>10</v>
       </c>
-      <c r="M110" s="5">
-        <v>1.4990000000000001</v>
+      <c r="M110" s="6">
+        <v>1499</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5363,8 +5375,8 @@
       <c r="L111" s="4">
         <v>3</v>
       </c>
-      <c r="M111" s="5">
-        <v>1.5349999999999999</v>
+      <c r="M111" s="6">
+        <v>1535</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,7 +5416,7 @@
       <c r="L112" s="4">
         <v>7</v>
       </c>
-      <c r="M112" s="5">
+      <c r="M112" s="9">
         <v>830</v>
       </c>
     </row>
@@ -5443,7 +5455,7 @@
       <c r="L113" s="4">
         <v>2</v>
       </c>
-      <c r="M113" s="5">
+      <c r="M113" s="9">
         <v>811</v>
       </c>
     </row>
@@ -5484,7 +5496,7 @@
       <c r="L114" s="4">
         <v>3</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M114" s="9">
         <v>760</v>
       </c>
     </row>
@@ -5523,7 +5535,7 @@
       <c r="L115" s="4">
         <v>12</v>
       </c>
-      <c r="M115" s="5">
+      <c r="M115" s="9">
         <v>771</v>
       </c>
     </row>
@@ -5564,7 +5576,7 @@
       <c r="L116" s="4">
         <v>4</v>
       </c>
-      <c r="M116" s="5">
+      <c r="M116" s="9">
         <v>908</v>
       </c>
     </row>
@@ -5603,7 +5615,7 @@
       <c r="L117" s="4">
         <v>7</v>
       </c>
-      <c r="M117" s="5">
+      <c r="M117" s="9">
         <v>913</v>
       </c>
     </row>
@@ -5644,7 +5656,7 @@
       <c r="L118" s="4">
         <v>1</v>
       </c>
-      <c r="M118" s="5">
+      <c r="M118" s="9">
         <v>972</v>
       </c>
     </row>
@@ -5683,8 +5695,8 @@
       <c r="L119" s="4">
         <v>5</v>
       </c>
-      <c r="M119" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M119" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5724,7 +5736,7 @@
       <c r="L120" s="4">
         <v>3</v>
       </c>
-      <c r="M120" s="5">
+      <c r="M120" s="9">
         <v>925</v>
       </c>
     </row>
@@ -5763,8 +5775,8 @@
       <c r="L121" s="4">
         <v>5</v>
       </c>
-      <c r="M121" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M121" s="6">
+        <v>1031</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5804,8 +5816,8 @@
       <c r="L122" s="4">
         <v>7</v>
       </c>
-      <c r="M122" s="5">
-        <v>1.0569999999999999</v>
+      <c r="M122" s="6">
+        <v>1057</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5843,8 +5855,8 @@
       <c r="L123" s="4">
         <v>9</v>
       </c>
-      <c r="M123" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M123" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5884,8 +5896,8 @@
       <c r="L124" s="4">
         <v>10</v>
       </c>
-      <c r="M124" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M124" s="6">
+        <v>1031</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5923,8 +5935,8 @@
       <c r="L125" s="4">
         <v>6</v>
       </c>
-      <c r="M125" s="5">
-        <v>1.08</v>
+      <c r="M125" s="6">
+        <v>1080</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5964,8 +5976,8 @@
       <c r="L126" s="4">
         <v>9</v>
       </c>
-      <c r="M126" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M126" s="6">
+        <v>1047</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -6003,8 +6015,8 @@
       <c r="L127" s="4">
         <v>9</v>
       </c>
-      <c r="M127" s="5">
-        <v>1.103</v>
+      <c r="M127" s="6">
+        <v>1103</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6044,7 +6056,7 @@
       <c r="L128" s="4">
         <v>4</v>
       </c>
-      <c r="M128" s="5">
+      <c r="M128" s="9">
         <v>860</v>
       </c>
     </row>
@@ -6083,8 +6095,8 @@
       <c r="L129" s="4">
         <v>6</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.0049999999999999</v>
+      <c r="M129" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6124,7 +6136,7 @@
       <c r="L130" s="4">
         <v>4</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="9">
         <v>643</v>
       </c>
     </row>
@@ -6163,7 +6175,7 @@
       <c r="L131" s="4">
         <v>8</v>
       </c>
-      <c r="M131" s="5">
+      <c r="M131" s="9">
         <v>742</v>
       </c>
     </row>
@@ -6204,7 +6216,7 @@
       <c r="L132" s="4">
         <v>12</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="9">
         <v>649</v>
       </c>
     </row>
@@ -6243,7 +6255,7 @@
       <c r="L133" s="4">
         <v>5</v>
       </c>
-      <c r="M133" s="5">
+      <c r="M133" s="9">
         <v>983</v>
       </c>
     </row>
@@ -6251,39 +6263,39 @@
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
+      <c r="B134" s="7"/>
+      <c r="C134" s="9">
         <v>545</v>
       </c>
-      <c r="D134" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="E134" s="5">
-        <v>7.3639999999999999</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.873</v>
-      </c>
-      <c r="G134" s="5">
-        <v>3.488</v>
-      </c>
-      <c r="H134" s="5">
-        <v>5.649</v>
-      </c>
-      <c r="I134" s="5">
-        <v>2.8290000000000002</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="D134" s="6">
+        <v>1050</v>
+      </c>
+      <c r="E134" s="6">
+        <v>7364</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1873</v>
+      </c>
+      <c r="G134" s="6">
+        <v>3488</v>
+      </c>
+      <c r="H134" s="6">
+        <v>5649</v>
+      </c>
+      <c r="I134" s="6">
+        <v>2829</v>
+      </c>
+      <c r="J134" s="9">
         <v>266</v>
       </c>
-      <c r="K134" s="5">
-        <v>15</v>
-      </c>
-      <c r="L134" s="5">
+      <c r="K134" s="9">
+        <v>15</v>
+      </c>
+      <c r="L134" s="9">
         <v>151</v>
       </c>
-      <c r="M134" s="5">
-        <v>23.23</v>
+      <c r="M134" s="6">
+        <v>23230</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6362,7 +6374,7 @@
       <c r="L136" s="4">
         <v>15</v>
       </c>
-      <c r="M136" s="5">
+      <c r="M136" s="9">
         <v>912</v>
       </c>
     </row>
@@ -6401,7 +6413,7 @@
       <c r="L137" s="4">
         <v>2</v>
       </c>
-      <c r="M137" s="5">
+      <c r="M137" s="9">
         <v>922</v>
       </c>
     </row>
@@ -6442,7 +6454,7 @@
       <c r="L138" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M138" s="5">
+      <c r="M138" s="9">
         <v>472</v>
       </c>
     </row>
@@ -6481,7 +6493,7 @@
       <c r="L139" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M139" s="5">
+      <c r="M139" s="9">
         <v>442</v>
       </c>
     </row>
@@ -6522,7 +6534,7 @@
       <c r="L140" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M140" s="5">
+      <c r="M140" s="9">
         <v>451</v>
       </c>
     </row>
@@ -6561,7 +6573,7 @@
       <c r="L141" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="9">
         <v>409</v>
       </c>
     </row>
@@ -6602,7 +6614,7 @@
       <c r="L142" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="9">
         <v>481</v>
       </c>
     </row>
@@ -6641,7 +6653,7 @@
       <c r="L143" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="9">
         <v>479</v>
       </c>
     </row>
@@ -6682,7 +6694,7 @@
       <c r="L144" s="4">
         <v>1</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="9">
         <v>546</v>
       </c>
     </row>
@@ -6721,7 +6733,7 @@
       <c r="L145" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="9">
         <v>507</v>
       </c>
     </row>
@@ -6762,7 +6774,7 @@
       <c r="L146" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="9">
         <v>389</v>
       </c>
     </row>
@@ -6801,7 +6813,7 @@
       <c r="L147" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="9">
         <v>396</v>
       </c>
     </row>
@@ -6842,7 +6854,7 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="9">
         <v>388</v>
       </c>
     </row>
@@ -6881,7 +6893,7 @@
       <c r="L149" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="9">
         <v>380</v>
       </c>
     </row>
@@ -6922,7 +6934,7 @@
       <c r="L150" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="9">
         <v>322</v>
       </c>
     </row>
@@ -6961,7 +6973,7 @@
       <c r="L151" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="9">
         <v>304</v>
       </c>
     </row>
@@ -7002,7 +7014,7 @@
       <c r="L152" s="4">
         <v>1</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="9">
         <v>281</v>
       </c>
     </row>
@@ -7041,7 +7053,7 @@
       <c r="L153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="9">
         <v>310</v>
       </c>
     </row>
@@ -7082,7 +7094,7 @@
       <c r="L154" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="9">
         <v>210</v>
       </c>
     </row>
@@ -7121,7 +7133,7 @@
       <c r="L155" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="9">
         <v>221</v>
       </c>
     </row>
@@ -7162,7 +7174,7 @@
       <c r="L156" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="9">
         <v>153</v>
       </c>
     </row>
@@ -7201,7 +7213,7 @@
       <c r="L157" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="9">
         <v>183</v>
       </c>
     </row>
@@ -7242,7 +7254,7 @@
       <c r="L158" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="9">
         <v>124</v>
       </c>
     </row>
@@ -7281,7 +7293,7 @@
       <c r="L159" s="4">
         <v>2</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="9">
         <v>206</v>
       </c>
     </row>
@@ -7289,39 +7301,39 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="7"/>
+      <c r="C160" s="9">
         <v>469</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="9">
         <v>404</v>
       </c>
-      <c r="E160" s="5">
-        <v>2.5019999999999998</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.274</v>
-      </c>
-      <c r="H160" s="5">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="I160" s="5">
+      <c r="E160" s="6">
+        <v>2502</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1312</v>
+      </c>
+      <c r="G160" s="6">
+        <v>2274</v>
+      </c>
+      <c r="H160" s="6">
+        <v>2037</v>
+      </c>
+      <c r="I160" s="9">
         <v>438</v>
       </c>
-      <c r="J160" s="5">
+      <c r="J160" s="9">
         <v>26</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="9">
         <v>3</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="9">
         <v>23</v>
       </c>
-      <c r="M160" s="5">
-        <v>9.4879999999999995</v>
+      <c r="M160" s="6">
+        <v>9488</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7400,7 +7412,7 @@
       <c r="L162" s="4">
         <v>7</v>
       </c>
-      <c r="M162" s="5">
+      <c r="M162" s="9">
         <v>503</v>
       </c>
     </row>
@@ -7439,7 +7451,7 @@
       <c r="L163" s="4">
         <v>1</v>
       </c>
-      <c r="M163" s="5">
+      <c r="M163" s="9">
         <v>477</v>
       </c>
     </row>
@@ -7480,7 +7492,7 @@
       <c r="L164" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M164" s="5">
+      <c r="M164" s="9">
         <v>424</v>
       </c>
     </row>
@@ -7519,7 +7531,7 @@
       <c r="L165" s="4">
         <v>2</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="9">
         <v>379</v>
       </c>
     </row>
@@ -7560,7 +7572,7 @@
       <c r="L166" s="4">
         <v>1</v>
       </c>
-      <c r="M166" s="5">
+      <c r="M166" s="9">
         <v>392</v>
       </c>
     </row>
@@ -7599,7 +7611,7 @@
       <c r="L167" s="4">
         <v>8</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="9">
         <v>386</v>
       </c>
     </row>
@@ -7640,7 +7652,7 @@
       <c r="L168" s="4">
         <v>1</v>
       </c>
-      <c r="M168" s="5">
+      <c r="M168" s="9">
         <v>406</v>
       </c>
     </row>
@@ -7679,7 +7691,7 @@
       <c r="L169" s="4">
         <v>4</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="9">
         <v>328</v>
       </c>
     </row>
@@ -7720,7 +7732,7 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
+      <c r="M170" s="9">
         <v>429</v>
       </c>
     </row>
@@ -7759,7 +7771,7 @@
       <c r="L171" s="4">
         <v>1</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="9">
         <v>359</v>
       </c>
     </row>
@@ -7800,7 +7812,7 @@
       <c r="L172" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="9">
         <v>349</v>
       </c>
     </row>
@@ -7839,7 +7851,7 @@
       <c r="L173" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="9">
         <v>330</v>
       </c>
     </row>
@@ -7880,7 +7892,7 @@
       <c r="L174" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="9">
         <v>380</v>
       </c>
     </row>
@@ -7919,7 +7931,7 @@
       <c r="L175" s="4">
         <v>1</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="9">
         <v>349</v>
       </c>
     </row>
@@ -7960,7 +7972,7 @@
       <c r="L176" s="4">
         <v>3</v>
       </c>
-      <c r="M176" s="5">
+      <c r="M176" s="9">
         <v>394</v>
       </c>
     </row>
@@ -7999,7 +8011,7 @@
       <c r="L177" s="4">
         <v>1</v>
       </c>
-      <c r="M177" s="5">
+      <c r="M177" s="9">
         <v>416</v>
       </c>
     </row>
@@ -8040,7 +8052,7 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
+      <c r="M178" s="9">
         <v>345</v>
       </c>
     </row>
@@ -8079,7 +8091,7 @@
       <c r="L179" s="4">
         <v>1</v>
       </c>
-      <c r="M179" s="5">
+      <c r="M179" s="9">
         <v>377</v>
       </c>
     </row>
@@ -8120,7 +8132,7 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
+      <c r="M180" s="9">
         <v>274</v>
       </c>
     </row>
@@ -8159,7 +8171,7 @@
       <c r="L181" s="4">
         <v>3</v>
       </c>
-      <c r="M181" s="5">
+      <c r="M181" s="9">
         <v>314</v>
       </c>
     </row>
@@ -8200,7 +8212,7 @@
       <c r="L182" s="4">
         <v>5</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="9">
         <v>211</v>
       </c>
     </row>
@@ -8239,7 +8251,7 @@
       <c r="L183" s="4">
         <v>1</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="9">
         <v>249</v>
       </c>
     </row>
@@ -8280,7 +8292,7 @@
       <c r="L184" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="9">
         <v>249</v>
       </c>
     </row>
@@ -8319,7 +8331,7 @@
       <c r="L185" s="4">
         <v>1</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="9">
         <v>466</v>
       </c>
     </row>
@@ -8327,39 +8339,39 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="7"/>
+      <c r="C186" s="9">
         <v>69</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="9">
         <v>388</v>
       </c>
-      <c r="E186" s="5">
-        <v>2.6059999999999999</v>
-      </c>
-      <c r="F186" s="5">
+      <c r="E186" s="6">
+        <v>2606</v>
+      </c>
+      <c r="F186" s="9">
         <v>917</v>
       </c>
-      <c r="G186" s="5">
-        <v>1.2629999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>2.262</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.137</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="G186" s="6">
+        <v>1263</v>
+      </c>
+      <c r="H186" s="6">
+        <v>2262</v>
+      </c>
+      <c r="I186" s="6">
+        <v>1137</v>
+      </c>
+      <c r="J186" s="9">
         <v>97</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="9">
         <v>3</v>
       </c>
-      <c r="L186" s="5">
+      <c r="L186" s="9">
         <v>44</v>
       </c>
-      <c r="M186" s="5">
-        <v>8.7859999999999996</v>
+      <c r="M186" s="6">
+        <v>8786</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -8423,8 +8435,8 @@
       <c r="G188" s="4">
         <v>458</v>
       </c>
-      <c r="H188" s="4">
-        <v>1.3859999999999999</v>
+      <c r="H188" s="5">
+        <v>1386</v>
       </c>
       <c r="I188" s="4">
         <v>249</v>
@@ -8438,8 +8450,8 @@
       <c r="L188" s="4">
         <v>28</v>
       </c>
-      <c r="M188" s="5">
-        <v>2.1669999999999998</v>
+      <c r="M188" s="6">
+        <v>2167</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8462,8 +8474,8 @@
       <c r="G189" s="4">
         <v>467</v>
       </c>
-      <c r="H189" s="4">
-        <v>1.226</v>
+      <c r="H189" s="5">
+        <v>1226</v>
       </c>
       <c r="I189" s="4">
         <v>392</v>
@@ -8477,8 +8489,8 @@
       <c r="L189" s="4">
         <v>22</v>
       </c>
-      <c r="M189" s="5">
-        <v>2.1549999999999998</v>
+      <c r="M189" s="6">
+        <v>2155</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8518,8 +8530,8 @@
       <c r="L190" s="4">
         <v>10</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.413</v>
+      <c r="M190" s="6">
+        <v>1413</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8557,8 +8569,8 @@
       <c r="L191" s="4">
         <v>12</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.45</v>
+      <c r="M191" s="6">
+        <v>1450</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8598,8 +8610,8 @@
       <c r="L192" s="4">
         <v>10</v>
       </c>
-      <c r="M192" s="5">
-        <v>1.1970000000000001</v>
+      <c r="M192" s="6">
+        <v>1197</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8637,8 +8649,8 @@
       <c r="L193" s="4">
         <v>13</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.292</v>
+      <c r="M193" s="6">
+        <v>1292</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8678,8 +8690,8 @@
       <c r="L194" s="4">
         <v>14</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.462</v>
+      <c r="M194" s="6">
+        <v>1462</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8717,8 +8729,8 @@
       <c r="L195" s="4">
         <v>21</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.4079999999999999</v>
+      <c r="M195" s="6">
+        <v>1408</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8758,8 +8770,8 @@
       <c r="L196" s="4">
         <v>20</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.5720000000000001</v>
+      <c r="M196" s="6">
+        <v>1572</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8797,8 +8809,8 @@
       <c r="L197" s="4">
         <v>11</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.5089999999999999</v>
+      <c r="M197" s="6">
+        <v>1509</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8838,8 +8850,8 @@
       <c r="L198" s="4">
         <v>24</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.546</v>
+      <c r="M198" s="6">
+        <v>1546</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8877,8 +8889,8 @@
       <c r="L199" s="4">
         <v>32</v>
       </c>
-      <c r="M199" s="5">
-        <v>1.5009999999999999</v>
+      <c r="M199" s="6">
+        <v>1501</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8918,8 +8930,8 @@
       <c r="L200" s="4">
         <v>27</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.5309999999999999</v>
+      <c r="M200" s="6">
+        <v>1531</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8957,8 +8969,8 @@
       <c r="L201" s="4">
         <v>17</v>
       </c>
-      <c r="M201" s="5">
-        <v>1.6719999999999999</v>
+      <c r="M201" s="6">
+        <v>1672</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8998,8 +9010,8 @@
       <c r="L202" s="4">
         <v>26</v>
       </c>
-      <c r="M202" s="5">
-        <v>1.579</v>
+      <c r="M202" s="6">
+        <v>1579</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -9037,8 +9049,8 @@
       <c r="L203" s="4">
         <v>23</v>
       </c>
-      <c r="M203" s="5">
-        <v>1.5680000000000001</v>
+      <c r="M203" s="6">
+        <v>1568</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9078,8 +9090,8 @@
       <c r="L204" s="4">
         <v>19</v>
       </c>
-      <c r="M204" s="5">
-        <v>1.4219999999999999</v>
+      <c r="M204" s="6">
+        <v>1422</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9093,8 +9105,8 @@
       <c r="D205" s="4">
         <v>129</v>
       </c>
-      <c r="E205" s="4">
-        <v>1.0249999999999999</v>
+      <c r="E205" s="5">
+        <v>1025</v>
       </c>
       <c r="F205" s="4">
         <v>80</v>
@@ -9117,8 +9129,8 @@
       <c r="L205" s="4">
         <v>29</v>
       </c>
-      <c r="M205" s="5">
-        <v>1.623</v>
+      <c r="M205" s="6">
+        <v>1623</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9158,8 +9170,8 @@
       <c r="L206" s="4">
         <v>29</v>
       </c>
-      <c r="M206" s="5">
-        <v>1.1850000000000001</v>
+      <c r="M206" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9197,8 +9209,8 @@
       <c r="L207" s="4">
         <v>26</v>
       </c>
-      <c r="M207" s="5">
-        <v>1.363</v>
+      <c r="M207" s="6">
+        <v>1363</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9238,7 +9250,7 @@
       <c r="L208" s="4">
         <v>21</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="9">
         <v>951</v>
       </c>
     </row>
@@ -9277,8 +9289,8 @@
       <c r="L209" s="4">
         <v>26</v>
       </c>
-      <c r="M209" s="5">
-        <v>1.171</v>
+      <c r="M209" s="6">
+        <v>1171</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9318,8 +9330,8 @@
       <c r="L210" s="4">
         <v>27</v>
       </c>
-      <c r="M210" s="5">
-        <v>1.149</v>
+      <c r="M210" s="6">
+        <v>1149</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9357,47 +9369,47 @@
       <c r="L211" s="4">
         <v>14</v>
       </c>
-      <c r="M211" s="5">
-        <v>1.679</v>
+      <c r="M211" s="6">
+        <v>1679</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="D212" s="5">
-        <v>1.444</v>
-      </c>
-      <c r="E212" s="5">
-        <v>10.089</v>
-      </c>
-      <c r="F212" s="5">
-        <v>2.5219999999999998</v>
-      </c>
-      <c r="G212" s="5">
-        <v>5.4240000000000004</v>
-      </c>
-      <c r="H212" s="5">
-        <v>9.1219999999999999</v>
-      </c>
-      <c r="I212" s="5">
-        <v>4.8540000000000001</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="B212" s="7"/>
+      <c r="C212" s="6">
+        <v>1110</v>
+      </c>
+      <c r="D212" s="6">
+        <v>1444</v>
+      </c>
+      <c r="E212" s="6">
+        <v>10089</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2522</v>
+      </c>
+      <c r="G212" s="6">
+        <v>5424</v>
+      </c>
+      <c r="H212" s="6">
+        <v>9122</v>
+      </c>
+      <c r="I212" s="6">
+        <v>4854</v>
+      </c>
+      <c r="J212" s="9">
         <v>472</v>
       </c>
-      <c r="K212" s="5">
+      <c r="K212" s="9">
         <v>27</v>
       </c>
-      <c r="L212" s="5">
+      <c r="L212" s="9">
         <v>501</v>
       </c>
-      <c r="M212" s="5">
-        <v>35.564999999999998</v>
+      <c r="M212" s="6">
+        <v>35565</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9461,8 +9473,8 @@
       <c r="G214" s="4">
         <v>391</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.0820000000000001</v>
+      <c r="H214" s="5">
+        <v>1082</v>
       </c>
       <c r="I214" s="4">
         <v>187</v>
@@ -9476,8 +9488,8 @@
       <c r="L214" s="4">
         <v>315</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.1190000000000002</v>
+      <c r="M214" s="6">
+        <v>2119</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9500,8 +9512,8 @@
       <c r="G215" s="4">
         <v>291</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.069</v>
+      <c r="H215" s="5">
+        <v>1069</v>
       </c>
       <c r="I215" s="4">
         <v>318</v>
@@ -9515,8 +9527,8 @@
       <c r="L215" s="4">
         <v>300</v>
       </c>
-      <c r="M215" s="5">
-        <v>2.16</v>
+      <c r="M215" s="6">
+        <v>2160</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9556,8 +9568,8 @@
       <c r="L216" s="4">
         <v>170</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.4159999999999999</v>
+      <c r="M216" s="6">
+        <v>1416</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9595,8 +9607,8 @@
       <c r="L217" s="4">
         <v>132</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.331</v>
+      <c r="M217" s="6">
+        <v>1331</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9636,8 +9648,8 @@
       <c r="L218" s="4">
         <v>158</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.302</v>
+      <c r="M218" s="6">
+        <v>1302</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9675,8 +9687,8 @@
       <c r="L219" s="4">
         <v>122</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.1419999999999999</v>
+      <c r="M219" s="6">
+        <v>1142</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9716,8 +9728,8 @@
       <c r="L220" s="4">
         <v>202</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.476</v>
+      <c r="M220" s="6">
+        <v>1476</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9755,8 +9767,8 @@
       <c r="L221" s="4">
         <v>182</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.214</v>
+      <c r="M221" s="6">
+        <v>1214</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9796,8 +9808,8 @@
       <c r="L222" s="4">
         <v>271</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.446</v>
+      <c r="M222" s="6">
+        <v>1446</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9835,8 +9847,8 @@
       <c r="L223" s="4">
         <v>250</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.2749999999999999</v>
+      <c r="M223" s="6">
+        <v>1275</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9876,8 +9888,8 @@
       <c r="L224" s="4">
         <v>290</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.339</v>
+      <c r="M224" s="6">
+        <v>1339</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9915,8 +9927,8 @@
       <c r="L225" s="4">
         <v>249</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.2509999999999999</v>
+      <c r="M225" s="6">
+        <v>1251</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9956,8 +9968,8 @@
       <c r="L226" s="4">
         <v>293</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.3879999999999999</v>
+      <c r="M226" s="6">
+        <v>1388</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9995,8 +10007,8 @@
       <c r="L227" s="4">
         <v>252</v>
       </c>
-      <c r="M227" s="5">
-        <v>1.3360000000000001</v>
+      <c r="M227" s="6">
+        <v>1336</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10036,8 +10048,8 @@
       <c r="L228" s="4">
         <v>252</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M228" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10075,8 +10087,8 @@
       <c r="L229" s="4">
         <v>252</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.496</v>
+      <c r="M229" s="6">
+        <v>1496</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10116,8 +10128,8 @@
       <c r="L230" s="4">
         <v>249</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.413</v>
+      <c r="M230" s="6">
+        <v>1413</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10155,8 +10167,8 @@
       <c r="L231" s="4">
         <v>275</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.4890000000000001</v>
+      <c r="M231" s="6">
+        <v>1489</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10196,8 +10208,8 @@
       <c r="L232" s="4">
         <v>195</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.1200000000000001</v>
+      <c r="M232" s="6">
+        <v>1120</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10235,8 +10247,8 @@
       <c r="L233" s="4">
         <v>187</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.232</v>
+      <c r="M233" s="6">
+        <v>1232</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10276,7 +10288,7 @@
       <c r="L234" s="4">
         <v>128</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="9">
         <v>852</v>
       </c>
     </row>
@@ -10315,7 +10327,7 @@
       <c r="L235" s="4">
         <v>121</v>
       </c>
-      <c r="M235" s="5">
+      <c r="M235" s="9">
         <v>943</v>
       </c>
     </row>
@@ -10356,8 +10368,8 @@
       <c r="L236" s="4">
         <v>102</v>
       </c>
-      <c r="M236" s="5">
-        <v>1.075</v>
+      <c r="M236" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10395,47 +10407,47 @@
       <c r="L237" s="4">
         <v>101</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.431</v>
+      <c r="M237" s="6">
+        <v>1431</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="D238" s="5">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="E238" s="5">
-        <v>9.3450000000000006</v>
-      </c>
-      <c r="F238" s="5">
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="G238" s="5">
-        <v>3.524</v>
-      </c>
-      <c r="H238" s="5">
-        <v>6.2220000000000004</v>
-      </c>
-      <c r="I238" s="5">
-        <v>3.2109999999999999</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="B238" s="7"/>
+      <c r="C238" s="6">
+        <v>1065</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1789</v>
+      </c>
+      <c r="E238" s="6">
+        <v>9345</v>
+      </c>
+      <c r="F238" s="6">
+        <v>2166</v>
+      </c>
+      <c r="G238" s="6">
+        <v>3524</v>
+      </c>
+      <c r="H238" s="6">
+        <v>6222</v>
+      </c>
+      <c r="I238" s="6">
+        <v>3211</v>
+      </c>
+      <c r="J238" s="9">
         <v>297</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="9">
         <v>26</v>
       </c>
-      <c r="L238" s="5">
-        <v>5.048</v>
-      </c>
-      <c r="M238" s="5">
-        <v>32.692999999999998</v>
+      <c r="L238" s="6">
+        <v>5048</v>
+      </c>
+      <c r="M238" s="6">
+        <v>32693</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10514,7 +10526,7 @@
       <c r="L240" s="4">
         <v>5</v>
       </c>
-      <c r="M240" s="5">
+      <c r="M240" s="9">
         <v>329</v>
       </c>
     </row>
@@ -10553,7 +10565,7 @@
       <c r="L241" s="4">
         <v>1</v>
       </c>
-      <c r="M241" s="5">
+      <c r="M241" s="9">
         <v>363</v>
       </c>
     </row>
@@ -10594,7 +10606,7 @@
       <c r="L242" s="4">
         <v>1</v>
       </c>
-      <c r="M242" s="5">
+      <c r="M242" s="9">
         <v>223</v>
       </c>
     </row>
@@ -10633,7 +10645,7 @@
       <c r="L243" s="4">
         <v>2</v>
       </c>
-      <c r="M243" s="5">
+      <c r="M243" s="9">
         <v>200</v>
       </c>
     </row>
@@ -10674,7 +10686,7 @@
       <c r="L244" s="4">
         <v>1</v>
       </c>
-      <c r="M244" s="5">
+      <c r="M244" s="9">
         <v>192</v>
       </c>
     </row>
@@ -10713,7 +10725,7 @@
       <c r="L245" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M245" s="5">
+      <c r="M245" s="9">
         <v>179</v>
       </c>
     </row>
@@ -10754,7 +10766,7 @@
       <c r="L246" s="4">
         <v>4</v>
       </c>
-      <c r="M246" s="5">
+      <c r="M246" s="9">
         <v>220</v>
       </c>
     </row>
@@ -10793,7 +10805,7 @@
       <c r="L247" s="4">
         <v>1</v>
       </c>
-      <c r="M247" s="5">
+      <c r="M247" s="9">
         <v>181</v>
       </c>
     </row>
@@ -10834,7 +10846,7 @@
       <c r="L248" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M248" s="5">
+      <c r="M248" s="9">
         <v>253</v>
       </c>
     </row>
@@ -10873,7 +10885,7 @@
       <c r="L249" s="4">
         <v>1</v>
       </c>
-      <c r="M249" s="5">
+      <c r="M249" s="9">
         <v>191</v>
       </c>
     </row>
@@ -10914,7 +10926,7 @@
       <c r="L250" s="4">
         <v>2</v>
       </c>
-      <c r="M250" s="5">
+      <c r="M250" s="9">
         <v>233</v>
       </c>
     </row>
@@ -10953,7 +10965,7 @@
       <c r="L251" s="4">
         <v>2</v>
       </c>
-      <c r="M251" s="5">
+      <c r="M251" s="9">
         <v>224</v>
       </c>
     </row>
@@ -10994,7 +11006,7 @@
       <c r="L252" s="4">
         <v>1</v>
       </c>
-      <c r="M252" s="5">
+      <c r="M252" s="9">
         <v>262</v>
       </c>
     </row>
@@ -11033,7 +11045,7 @@
       <c r="L253" s="4">
         <v>3</v>
       </c>
-      <c r="M253" s="5">
+      <c r="M253" s="9">
         <v>263</v>
       </c>
     </row>
@@ -11074,7 +11086,7 @@
       <c r="L254" s="4">
         <v>1</v>
       </c>
-      <c r="M254" s="5">
+      <c r="M254" s="9">
         <v>269</v>
       </c>
     </row>
@@ -11113,7 +11125,7 @@
       <c r="L255" s="4">
         <v>3</v>
       </c>
-      <c r="M255" s="5">
+      <c r="M255" s="9">
         <v>266</v>
       </c>
     </row>
@@ -11154,7 +11166,7 @@
       <c r="L256" s="4">
         <v>3</v>
       </c>
-      <c r="M256" s="5">
+      <c r="M256" s="9">
         <v>231</v>
       </c>
     </row>
@@ -11193,7 +11205,7 @@
       <c r="L257" s="4">
         <v>3</v>
       </c>
-      <c r="M257" s="5">
+      <c r="M257" s="9">
         <v>251</v>
       </c>
     </row>
@@ -11234,7 +11246,7 @@
       <c r="L258" s="4">
         <v>2</v>
       </c>
-      <c r="M258" s="5">
+      <c r="M258" s="9">
         <v>177</v>
       </c>
     </row>
@@ -11273,7 +11285,7 @@
       <c r="L259" s="4">
         <v>1</v>
       </c>
-      <c r="M259" s="5">
+      <c r="M259" s="9">
         <v>239</v>
       </c>
     </row>
@@ -11314,7 +11326,7 @@
       <c r="L260" s="4">
         <v>2</v>
       </c>
-      <c r="M260" s="5">
+      <c r="M260" s="9">
         <v>146</v>
       </c>
     </row>
@@ -11353,7 +11365,7 @@
       <c r="L261" s="4">
         <v>3</v>
       </c>
-      <c r="M261" s="5">
+      <c r="M261" s="9">
         <v>198</v>
       </c>
     </row>
@@ -11394,7 +11406,7 @@
       <c r="L262" s="4">
         <v>2</v>
       </c>
-      <c r="M262" s="5">
+      <c r="M262" s="9">
         <v>198</v>
       </c>
     </row>
@@ -11433,7 +11445,7 @@
       <c r="L263" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M263" s="5">
+      <c r="M263" s="9">
         <v>306</v>
       </c>
     </row>
@@ -11441,39 +11453,39 @@
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
+      <c r="B264" s="7"/>
+      <c r="C264" s="9">
         <v>102</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="9">
         <v>332</v>
       </c>
-      <c r="E264" s="5">
-        <v>1.88</v>
-      </c>
-      <c r="F264" s="5">
+      <c r="E264" s="6">
+        <v>1880</v>
+      </c>
+      <c r="F264" s="9">
         <v>514</v>
       </c>
-      <c r="G264" s="5">
+      <c r="G264" s="9">
         <v>785</v>
       </c>
-      <c r="H264" s="5">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="I264" s="5">
+      <c r="H264" s="6">
+        <v>1322</v>
+      </c>
+      <c r="I264" s="9">
         <v>563</v>
       </c>
-      <c r="J264" s="5">
+      <c r="J264" s="9">
         <v>50</v>
       </c>
-      <c r="K264" s="5">
-        <v>2</v>
-      </c>
-      <c r="L264" s="5">
+      <c r="K264" s="9">
+        <v>2</v>
+      </c>
+      <c r="L264" s="9">
         <v>44</v>
       </c>
-      <c r="M264" s="5">
-        <v>5.5940000000000003</v>
+      <c r="M264" s="6">
+        <v>5594</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11552,7 +11564,7 @@
       <c r="L266" s="4">
         <v>9</v>
       </c>
-      <c r="M266" s="5">
+      <c r="M266" s="9">
         <v>423</v>
       </c>
     </row>
@@ -11591,7 +11603,7 @@
       <c r="L267" s="4">
         <v>6</v>
       </c>
-      <c r="M267" s="5">
+      <c r="M267" s="9">
         <v>417</v>
       </c>
     </row>
@@ -11632,7 +11644,7 @@
       <c r="L268" s="4">
         <v>6</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="9">
         <v>237</v>
       </c>
     </row>
@@ -11671,7 +11683,7 @@
       <c r="L269" s="4">
         <v>7</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="9">
         <v>225</v>
       </c>
     </row>
@@ -11712,7 +11724,7 @@
       <c r="L270" s="4">
         <v>3</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="9">
         <v>217</v>
       </c>
     </row>
@@ -11751,7 +11763,7 @@
       <c r="L271" s="4">
         <v>4</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="9">
         <v>163</v>
       </c>
     </row>
@@ -11792,7 +11804,7 @@
       <c r="L272" s="4">
         <v>4</v>
       </c>
-      <c r="M272" s="5">
+      <c r="M272" s="9">
         <v>251</v>
       </c>
     </row>
@@ -11831,7 +11843,7 @@
       <c r="L273" s="4">
         <v>2</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="9">
         <v>226</v>
       </c>
     </row>
@@ -11872,7 +11884,7 @@
       <c r="L274" s="4">
         <v>5</v>
       </c>
-      <c r="M274" s="5">
+      <c r="M274" s="9">
         <v>271</v>
       </c>
     </row>
@@ -11911,7 +11923,7 @@
       <c r="L275" s="4">
         <v>4</v>
       </c>
-      <c r="M275" s="5">
+      <c r="M275" s="9">
         <v>264</v>
       </c>
     </row>
@@ -11952,7 +11964,7 @@
       <c r="L276" s="4">
         <v>3</v>
       </c>
-      <c r="M276" s="5">
+      <c r="M276" s="9">
         <v>304</v>
       </c>
     </row>
@@ -11991,7 +12003,7 @@
       <c r="L277" s="4">
         <v>4</v>
       </c>
-      <c r="M277" s="5">
+      <c r="M277" s="9">
         <v>312</v>
       </c>
     </row>
@@ -12032,7 +12044,7 @@
       <c r="L278" s="4">
         <v>9</v>
       </c>
-      <c r="M278" s="5">
+      <c r="M278" s="9">
         <v>316</v>
       </c>
     </row>
@@ -12071,7 +12083,7 @@
       <c r="L279" s="4">
         <v>6</v>
       </c>
-      <c r="M279" s="5">
+      <c r="M279" s="9">
         <v>322</v>
       </c>
     </row>
@@ -12112,7 +12124,7 @@
       <c r="L280" s="4">
         <v>12</v>
       </c>
-      <c r="M280" s="5">
+      <c r="M280" s="9">
         <v>319</v>
       </c>
     </row>
@@ -12151,7 +12163,7 @@
       <c r="L281" s="4">
         <v>7</v>
       </c>
-      <c r="M281" s="5">
+      <c r="M281" s="9">
         <v>328</v>
       </c>
     </row>
@@ -12192,7 +12204,7 @@
       <c r="L282" s="4">
         <v>11</v>
       </c>
-      <c r="M282" s="5">
+      <c r="M282" s="9">
         <v>323</v>
       </c>
     </row>
@@ -12231,7 +12243,7 @@
       <c r="L283" s="4">
         <v>9</v>
       </c>
-      <c r="M283" s="5">
+      <c r="M283" s="9">
         <v>319</v>
       </c>
     </row>
@@ -12272,7 +12284,7 @@
       <c r="L284" s="4">
         <v>9</v>
       </c>
-      <c r="M284" s="5">
+      <c r="M284" s="9">
         <v>224</v>
       </c>
     </row>
@@ -12311,7 +12323,7 @@
       <c r="L285" s="4">
         <v>13</v>
       </c>
-      <c r="M285" s="5">
+      <c r="M285" s="9">
         <v>312</v>
       </c>
     </row>
@@ -12352,7 +12364,7 @@
       <c r="L286" s="4">
         <v>11</v>
       </c>
-      <c r="M286" s="5">
+      <c r="M286" s="9">
         <v>219</v>
       </c>
     </row>
@@ -12391,7 +12403,7 @@
       <c r="L287" s="4">
         <v>6</v>
       </c>
-      <c r="M287" s="5">
+      <c r="M287" s="9">
         <v>268</v>
       </c>
     </row>
@@ -12432,7 +12444,7 @@
       <c r="L288" s="4">
         <v>8</v>
       </c>
-      <c r="M288" s="5">
+      <c r="M288" s="9">
         <v>321</v>
       </c>
     </row>
@@ -12471,7 +12483,7 @@
       <c r="L289" s="4">
         <v>8</v>
       </c>
-      <c r="M289" s="5">
+      <c r="M289" s="9">
         <v>398</v>
       </c>
     </row>
@@ -12479,39 +12491,39 @@
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="7"/>
+      <c r="C290" s="9">
         <v>334</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="9">
         <v>364</v>
       </c>
-      <c r="E290" s="5">
-        <v>3.0190000000000001</v>
-      </c>
-      <c r="F290" s="5">
+      <c r="E290" s="6">
+        <v>3019</v>
+      </c>
+      <c r="F290" s="9">
         <v>567</v>
       </c>
-      <c r="G290" s="5">
+      <c r="G290" s="9">
         <v>879</v>
       </c>
-      <c r="H290" s="5">
-        <v>1.129</v>
-      </c>
-      <c r="I290" s="5">
+      <c r="H290" s="6">
+        <v>1129</v>
+      </c>
+      <c r="I290" s="9">
         <v>472</v>
       </c>
-      <c r="J290" s="5">
+      <c r="J290" s="9">
         <v>47</v>
       </c>
-      <c r="K290" s="5">
-        <v>2</v>
-      </c>
-      <c r="L290" s="5">
+      <c r="K290" s="9">
+        <v>2</v>
+      </c>
+      <c r="L290" s="9">
         <v>166</v>
       </c>
-      <c r="M290" s="5">
-        <v>6.9790000000000001</v>
+      <c r="M290" s="6">
+        <v>6979</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12590,8 +12602,8 @@
       <c r="L292" s="4">
         <v>18</v>
       </c>
-      <c r="M292" s="5">
-        <v>1.57</v>
+      <c r="M292" s="6">
+        <v>1570</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12629,8 +12641,8 @@
       <c r="L293" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M293" s="5">
-        <v>1.5169999999999999</v>
+      <c r="M293" s="6">
+        <v>1517</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12670,7 +12682,7 @@
       <c r="L294" s="4">
         <v>2</v>
       </c>
-      <c r="M294" s="5">
+      <c r="M294" s="9">
         <v>946</v>
       </c>
     </row>
@@ -12709,7 +12721,7 @@
       <c r="L295" s="4">
         <v>2</v>
       </c>
-      <c r="M295" s="5">
+      <c r="M295" s="9">
         <v>941</v>
       </c>
     </row>
@@ -12750,7 +12762,7 @@
       <c r="L296" s="4">
         <v>1</v>
       </c>
-      <c r="M296" s="5">
+      <c r="M296" s="9">
         <v>868</v>
       </c>
     </row>
@@ -12789,7 +12801,7 @@
       <c r="L297" s="4">
         <v>1</v>
       </c>
-      <c r="M297" s="5">
+      <c r="M297" s="9">
         <v>806</v>
       </c>
     </row>
@@ -12830,7 +12842,7 @@
       <c r="L298" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M298" s="5">
+      <c r="M298" s="9">
         <v>960</v>
       </c>
     </row>
@@ -12869,7 +12881,7 @@
       <c r="L299" s="4">
         <v>1</v>
       </c>
-      <c r="M299" s="5">
+      <c r="M299" s="9">
         <v>853</v>
       </c>
     </row>
@@ -12910,7 +12922,7 @@
       <c r="L300" s="4">
         <v>3</v>
       </c>
-      <c r="M300" s="5">
+      <c r="M300" s="9">
         <v>917</v>
       </c>
     </row>
@@ -12949,7 +12961,7 @@
       <c r="L301" s="4">
         <v>2</v>
       </c>
-      <c r="M301" s="5">
+      <c r="M301" s="9">
         <v>905</v>
       </c>
     </row>
@@ -12990,7 +13002,7 @@
       <c r="L302" s="4">
         <v>1</v>
       </c>
-      <c r="M302" s="5">
+      <c r="M302" s="9">
         <v>855</v>
       </c>
     </row>
@@ -13029,7 +13041,7 @@
       <c r="L303" s="4">
         <v>1</v>
       </c>
-      <c r="M303" s="5">
+      <c r="M303" s="9">
         <v>881</v>
       </c>
     </row>
@@ -13070,7 +13082,7 @@
       <c r="L304" s="4">
         <v>4</v>
       </c>
-      <c r="M304" s="5">
+      <c r="M304" s="9">
         <v>869</v>
       </c>
     </row>
@@ -13109,7 +13121,7 @@
       <c r="L305" s="4">
         <v>1</v>
       </c>
-      <c r="M305" s="5">
+      <c r="M305" s="9">
         <v>842</v>
       </c>
     </row>
@@ -13150,7 +13162,7 @@
       <c r="L306" s="4">
         <v>1</v>
       </c>
-      <c r="M306" s="5">
+      <c r="M306" s="9">
         <v>825</v>
       </c>
     </row>
@@ -13189,7 +13201,7 @@
       <c r="L307" s="4">
         <v>2</v>
       </c>
-      <c r="M307" s="5">
+      <c r="M307" s="9">
         <v>833</v>
       </c>
     </row>
@@ -13230,7 +13242,7 @@
       <c r="L308" s="4">
         <v>2</v>
       </c>
-      <c r="M308" s="5">
+      <c r="M308" s="9">
         <v>784</v>
       </c>
     </row>
@@ -13269,7 +13281,7 @@
       <c r="L309" s="4">
         <v>1</v>
       </c>
-      <c r="M309" s="5">
+      <c r="M309" s="9">
         <v>744</v>
       </c>
     </row>
@@ -13310,7 +13322,7 @@
       <c r="L310" s="4">
         <v>1</v>
       </c>
-      <c r="M310" s="5">
+      <c r="M310" s="9">
         <v>534</v>
       </c>
     </row>
@@ -13349,7 +13361,7 @@
       <c r="L311" s="4">
         <v>1</v>
       </c>
-      <c r="M311" s="5">
+      <c r="M311" s="9">
         <v>604</v>
       </c>
     </row>
@@ -13390,7 +13402,7 @@
       <c r="L312" s="4">
         <v>2</v>
       </c>
-      <c r="M312" s="5">
+      <c r="M312" s="9">
         <v>411</v>
       </c>
     </row>
@@ -13429,7 +13441,7 @@
       <c r="L313" s="4">
         <v>1</v>
       </c>
-      <c r="M313" s="5">
+      <c r="M313" s="9">
         <v>490</v>
       </c>
     </row>
@@ -13470,7 +13482,7 @@
       <c r="L314" s="4">
         <v>5</v>
       </c>
-      <c r="M314" s="5">
+      <c r="M314" s="9">
         <v>522</v>
       </c>
     </row>
@@ -13509,7 +13521,7 @@
       <c r="L315" s="4">
         <v>2</v>
       </c>
-      <c r="M315" s="5">
+      <c r="M315" s="9">
         <v>755</v>
       </c>
     </row>
@@ -13517,39 +13529,39 @@
       <c r="A316" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B316" s="6"/>
-      <c r="C316" s="5">
+      <c r="B316" s="7"/>
+      <c r="C316" s="9">
         <v>604</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="9">
         <v>760</v>
       </c>
-      <c r="E316" s="5">
-        <v>6.3860000000000001</v>
-      </c>
-      <c r="F316" s="5">
-        <v>2.9380000000000002</v>
-      </c>
-      <c r="G316" s="5">
-        <v>3.8580000000000001</v>
-      </c>
-      <c r="H316" s="5">
-        <v>4.077</v>
-      </c>
-      <c r="I316" s="5">
-        <v>1.4370000000000001</v>
-      </c>
-      <c r="J316" s="5">
+      <c r="E316" s="6">
+        <v>6386</v>
+      </c>
+      <c r="F316" s="6">
+        <v>2938</v>
+      </c>
+      <c r="G316" s="6">
+        <v>3858</v>
+      </c>
+      <c r="H316" s="6">
+        <v>4077</v>
+      </c>
+      <c r="I316" s="6">
+        <v>1437</v>
+      </c>
+      <c r="J316" s="9">
         <v>103</v>
       </c>
-      <c r="K316" s="5">
-        <v>14</v>
-      </c>
-      <c r="L316" s="5">
+      <c r="K316" s="9">
+        <v>14</v>
+      </c>
+      <c r="L316" s="9">
         <v>55</v>
       </c>
-      <c r="M316" s="5">
-        <v>20.231999999999999</v>
+      <c r="M316" s="6">
+        <v>20232</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -13628,8 +13640,8 @@
       <c r="L318" s="4">
         <v>12</v>
       </c>
-      <c r="M318" s="5">
-        <v>1.5580000000000001</v>
+      <c r="M318" s="6">
+        <v>1558</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13667,8 +13679,8 @@
       <c r="L319" s="4">
         <v>1</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.587</v>
+      <c r="M319" s="6">
+        <v>1587</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -13708,8 +13720,8 @@
       <c r="L320" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M320" s="5">
-        <v>1.024</v>
+      <c r="M320" s="6">
+        <v>1024</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
@@ -13747,7 +13759,7 @@
       <c r="L321" s="4">
         <v>4</v>
       </c>
-      <c r="M321" s="5">
+      <c r="M321" s="9">
         <v>935</v>
       </c>
     </row>
@@ -13788,7 +13800,7 @@
       <c r="L322" s="4">
         <v>1</v>
       </c>
-      <c r="M322" s="5">
+      <c r="M322" s="9">
         <v>946</v>
       </c>
     </row>
@@ -13827,7 +13839,7 @@
       <c r="L323" s="4">
         <v>6</v>
       </c>
-      <c r="M323" s="5">
+      <c r="M323" s="9">
         <v>898</v>
       </c>
     </row>
@@ -13868,7 +13880,7 @@
       <c r="L324" s="4">
         <v>2</v>
       </c>
-      <c r="M324" s="5">
+      <c r="M324" s="9">
         <v>875</v>
       </c>
     </row>
@@ -13907,7 +13919,7 @@
       <c r="L325" s="4">
         <v>2</v>
       </c>
-      <c r="M325" s="5">
+      <c r="M325" s="9">
         <v>806</v>
       </c>
     </row>
@@ -13948,7 +13960,7 @@
       <c r="L326" s="4">
         <v>2</v>
       </c>
-      <c r="M326" s="5">
+      <c r="M326" s="9">
         <v>867</v>
       </c>
     </row>
@@ -13987,7 +13999,7 @@
       <c r="L327" s="4">
         <v>1</v>
       </c>
-      <c r="M327" s="5">
+      <c r="M327" s="9">
         <v>861</v>
       </c>
     </row>
@@ -14028,7 +14040,7 @@
       <c r="L328" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M328" s="5">
+      <c r="M328" s="9">
         <v>753</v>
       </c>
     </row>
@@ -14067,7 +14079,7 @@
       <c r="L329" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M329" s="5">
+      <c r="M329" s="9">
         <v>760</v>
       </c>
     </row>
@@ -14108,7 +14120,7 @@
       <c r="L330" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M330" s="5">
+      <c r="M330" s="9">
         <v>691</v>
       </c>
     </row>
@@ -14147,7 +14159,7 @@
       <c r="L331" s="4">
         <v>3</v>
       </c>
-      <c r="M331" s="5">
+      <c r="M331" s="9">
         <v>695</v>
       </c>
     </row>
@@ -14188,7 +14200,7 @@
       <c r="L332" s="4">
         <v>1</v>
       </c>
-      <c r="M332" s="5">
+      <c r="M332" s="9">
         <v>584</v>
       </c>
     </row>
@@ -14227,7 +14239,7 @@
       <c r="L333" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M333" s="5">
+      <c r="M333" s="9">
         <v>602</v>
       </c>
     </row>
@@ -14268,7 +14280,7 @@
       <c r="L334" s="4">
         <v>2</v>
       </c>
-      <c r="M334" s="5">
+      <c r="M334" s="9">
         <v>500</v>
       </c>
     </row>
@@ -14307,7 +14319,7 @@
       <c r="L335" s="4">
         <v>2</v>
       </c>
-      <c r="M335" s="5">
+      <c r="M335" s="9">
         <v>539</v>
       </c>
     </row>
@@ -14348,7 +14360,7 @@
       <c r="L336" s="4">
         <v>1</v>
       </c>
-      <c r="M336" s="5">
+      <c r="M336" s="9">
         <v>341</v>
       </c>
     </row>
@@ -14387,7 +14399,7 @@
       <c r="L337" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M337" s="5">
+      <c r="M337" s="9">
         <v>390</v>
       </c>
     </row>
@@ -14428,7 +14440,7 @@
       <c r="L338" s="4">
         <v>1</v>
       </c>
-      <c r="M338" s="5">
+      <c r="M338" s="9">
         <v>236</v>
       </c>
     </row>
@@ -14467,7 +14479,7 @@
       <c r="L339" s="4">
         <v>3</v>
       </c>
-      <c r="M339" s="5">
+      <c r="M339" s="9">
         <v>317</v>
       </c>
     </row>
@@ -14508,7 +14520,7 @@
       <c r="L340" s="4">
         <v>2</v>
       </c>
-      <c r="M340" s="5">
+      <c r="M340" s="9">
         <v>341</v>
       </c>
     </row>
@@ -14547,7 +14559,7 @@
       <c r="L341" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M341" s="5">
+      <c r="M341" s="9">
         <v>462</v>
       </c>
     </row>
@@ -14555,39 +14567,39 @@
       <c r="A342" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B342" s="6"/>
-      <c r="C342" s="5">
+      <c r="B342" s="7"/>
+      <c r="C342" s="9">
         <v>477</v>
       </c>
-      <c r="D342" s="5">
+      <c r="D342" s="9">
         <v>651</v>
       </c>
-      <c r="E342" s="5">
-        <v>4.8559999999999999</v>
-      </c>
-      <c r="F342" s="5">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="G342" s="5">
-        <v>3.5609999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>3.6819999999999999</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="J342" s="5">
+      <c r="E342" s="6">
+        <v>4856</v>
+      </c>
+      <c r="F342" s="6">
+        <v>2381</v>
+      </c>
+      <c r="G342" s="6">
+        <v>3561</v>
+      </c>
+      <c r="H342" s="6">
+        <v>3682</v>
+      </c>
+      <c r="I342" s="6">
+        <v>1753</v>
+      </c>
+      <c r="J342" s="9">
         <v>150</v>
       </c>
-      <c r="K342" s="5">
+      <c r="K342" s="9">
         <v>11</v>
       </c>
-      <c r="L342" s="5">
+      <c r="L342" s="9">
         <v>46</v>
       </c>
-      <c r="M342" s="5">
-        <v>17.568000000000001</v>
+      <c r="M342" s="6">
+        <v>17568</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14666,7 +14678,7 @@
       <c r="L344" s="4">
         <v>2</v>
       </c>
-      <c r="M344" s="5">
+      <c r="M344" s="9">
         <v>87</v>
       </c>
     </row>
@@ -14705,7 +14717,7 @@
       <c r="L345" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M345" s="5">
+      <c r="M345" s="9">
         <v>47</v>
       </c>
     </row>
@@ -14746,7 +14758,7 @@
       <c r="L346" s="4">
         <v>1</v>
       </c>
-      <c r="M346" s="5">
+      <c r="M346" s="9">
         <v>49</v>
       </c>
     </row>
@@ -14785,7 +14797,7 @@
       <c r="L347" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M347" s="5">
+      <c r="M347" s="9">
         <v>34</v>
       </c>
     </row>
@@ -14826,7 +14838,7 @@
       <c r="L348" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M348" s="5">
+      <c r="M348" s="9">
         <v>51</v>
       </c>
     </row>
@@ -14865,7 +14877,7 @@
       <c r="L349" s="4">
         <v>1</v>
       </c>
-      <c r="M349" s="5">
+      <c r="M349" s="9">
         <v>36</v>
       </c>
     </row>
@@ -14906,7 +14918,7 @@
       <c r="L350" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M350" s="5">
+      <c r="M350" s="9">
         <v>47</v>
       </c>
     </row>
@@ -14945,7 +14957,7 @@
       <c r="L351" s="4">
         <v>1</v>
       </c>
-      <c r="M351" s="5">
+      <c r="M351" s="9">
         <v>43</v>
       </c>
     </row>
@@ -14986,7 +14998,7 @@
       <c r="L352" s="4">
         <v>1</v>
       </c>
-      <c r="M352" s="5">
+      <c r="M352" s="9">
         <v>56</v>
       </c>
     </row>
@@ -15025,7 +15037,7 @@
       <c r="L353" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M353" s="5">
+      <c r="M353" s="9">
         <v>38</v>
       </c>
     </row>
@@ -15066,7 +15078,7 @@
       <c r="L354" s="4">
         <v>1</v>
       </c>
-      <c r="M354" s="5">
+      <c r="M354" s="9">
         <v>61</v>
       </c>
     </row>
@@ -15105,7 +15117,7 @@
       <c r="L355" s="4">
         <v>3</v>
       </c>
-      <c r="M355" s="5">
+      <c r="M355" s="9">
         <v>53</v>
       </c>
     </row>
@@ -15146,7 +15158,7 @@
       <c r="L356" s="4">
         <v>5</v>
       </c>
-      <c r="M356" s="5">
+      <c r="M356" s="9">
         <v>77</v>
       </c>
     </row>
@@ -15185,7 +15197,7 @@
       <c r="L357" s="4">
         <v>3</v>
       </c>
-      <c r="M357" s="5">
+      <c r="M357" s="9">
         <v>83</v>
       </c>
     </row>
@@ -15226,7 +15238,7 @@
       <c r="L358" s="4">
         <v>1</v>
       </c>
-      <c r="M358" s="5">
+      <c r="M358" s="9">
         <v>92</v>
       </c>
     </row>
@@ -15265,7 +15277,7 @@
       <c r="L359" s="4">
         <v>3</v>
       </c>
-      <c r="M359" s="5">
+      <c r="M359" s="9">
         <v>115</v>
       </c>
     </row>
@@ -15306,7 +15318,7 @@
       <c r="L360" s="4">
         <v>4</v>
       </c>
-      <c r="M360" s="5">
+      <c r="M360" s="9">
         <v>100</v>
       </c>
     </row>
@@ -15345,7 +15357,7 @@
       <c r="L361" s="4">
         <v>2</v>
       </c>
-      <c r="M361" s="5">
+      <c r="M361" s="9">
         <v>122</v>
       </c>
     </row>
@@ -15386,7 +15398,7 @@
       <c r="L362" s="4">
         <v>5</v>
       </c>
-      <c r="M362" s="5">
+      <c r="M362" s="9">
         <v>84</v>
       </c>
     </row>
@@ -15425,7 +15437,7 @@
       <c r="L363" s="4">
         <v>4</v>
       </c>
-      <c r="M363" s="5">
+      <c r="M363" s="9">
         <v>114</v>
       </c>
     </row>
@@ -15466,7 +15478,7 @@
       <c r="L364" s="4">
         <v>5</v>
       </c>
-      <c r="M364" s="5">
+      <c r="M364" s="9">
         <v>82</v>
       </c>
     </row>
@@ -15505,7 +15517,7 @@
       <c r="L365" s="4">
         <v>2</v>
       </c>
-      <c r="M365" s="5">
+      <c r="M365" s="9">
         <v>102</v>
       </c>
     </row>
@@ -15546,7 +15558,7 @@
       <c r="L366" s="4">
         <v>2</v>
       </c>
-      <c r="M366" s="5">
+      <c r="M366" s="9">
         <v>98</v>
       </c>
     </row>
@@ -15585,7 +15597,7 @@
       <c r="L367" s="4">
         <v>4</v>
       </c>
-      <c r="M367" s="5">
+      <c r="M367" s="9">
         <v>176</v>
       </c>
     </row>
@@ -15593,39 +15605,39 @@
       <c r="A368" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B368" s="6"/>
-      <c r="C368" s="5">
+      <c r="B368" s="7"/>
+      <c r="C368" s="9">
         <v>83</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D368" s="9">
         <v>192</v>
       </c>
-      <c r="E368" s="5">
+      <c r="E368" s="9">
         <v>706</v>
       </c>
-      <c r="F368" s="5">
+      <c r="F368" s="9">
         <v>159</v>
       </c>
-      <c r="G368" s="5">
+      <c r="G368" s="9">
         <v>194</v>
       </c>
-      <c r="H368" s="5">
+      <c r="H368" s="9">
         <v>310</v>
       </c>
-      <c r="I368" s="5">
+      <c r="I368" s="9">
         <v>141</v>
       </c>
-      <c r="J368" s="5">
+      <c r="J368" s="9">
         <v>10</v>
       </c>
-      <c r="K368" s="5">
-        <v>2</v>
-      </c>
-      <c r="L368" s="5">
+      <c r="K368" s="9">
+        <v>2</v>
+      </c>
+      <c r="L368" s="9">
         <v>50</v>
       </c>
-      <c r="M368" s="5">
-        <v>1.847</v>
+      <c r="M368" s="6">
+        <v>1847</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15689,8 +15701,8 @@
       <c r="G370" s="4">
         <v>514</v>
       </c>
-      <c r="H370" s="4">
-        <v>1.484</v>
+      <c r="H370" s="5">
+        <v>1484</v>
       </c>
       <c r="I370" s="4">
         <v>265</v>
@@ -15704,8 +15716,8 @@
       <c r="L370" s="4">
         <v>24</v>
       </c>
-      <c r="M370" s="5">
-        <v>2.3330000000000002</v>
+      <c r="M370" s="6">
+        <v>2333</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15728,8 +15740,8 @@
       <c r="G371" s="4">
         <v>436</v>
       </c>
-      <c r="H371" s="4">
-        <v>1.446</v>
+      <c r="H371" s="5">
+        <v>1446</v>
       </c>
       <c r="I371" s="4">
         <v>438</v>
@@ -15743,8 +15755,8 @@
       <c r="L371" s="4">
         <v>7</v>
       </c>
-      <c r="M371" s="5">
-        <v>2.3889999999999998</v>
+      <c r="M371" s="6">
+        <v>2389</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15784,8 +15796,8 @@
       <c r="L372" s="4">
         <v>10</v>
       </c>
-      <c r="M372" s="5">
-        <v>1.482</v>
+      <c r="M372" s="6">
+        <v>1482</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15823,8 +15835,8 @@
       <c r="L373" s="4">
         <v>9</v>
       </c>
-      <c r="M373" s="5">
-        <v>1.508</v>
+      <c r="M373" s="6">
+        <v>1508</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15864,8 +15876,8 @@
       <c r="L374" s="4">
         <v>11</v>
       </c>
-      <c r="M374" s="5">
-        <v>1.667</v>
+      <c r="M374" s="6">
+        <v>1667</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15903,8 +15915,8 @@
       <c r="L375" s="4">
         <v>7</v>
       </c>
-      <c r="M375" s="5">
-        <v>1.708</v>
+      <c r="M375" s="6">
+        <v>1708</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15944,8 +15956,8 @@
       <c r="L376" s="4">
         <v>14</v>
       </c>
-      <c r="M376" s="5">
-        <v>1.8819999999999999</v>
+      <c r="M376" s="6">
+        <v>1882</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15983,8 +15995,8 @@
       <c r="L377" s="4">
         <v>12</v>
       </c>
-      <c r="M377" s="5">
-        <v>1.84</v>
+      <c r="M377" s="6">
+        <v>1840</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16024,8 +16036,8 @@
       <c r="L378" s="4">
         <v>18</v>
       </c>
-      <c r="M378" s="5">
-        <v>2.0190000000000001</v>
+      <c r="M378" s="6">
+        <v>2019</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16063,8 +16075,8 @@
       <c r="L379" s="4">
         <v>21</v>
       </c>
-      <c r="M379" s="5">
-        <v>1.867</v>
+      <c r="M379" s="6">
+        <v>1867</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16104,8 +16116,8 @@
       <c r="L380" s="4">
         <v>26</v>
       </c>
-      <c r="M380" s="5">
-        <v>1.746</v>
+      <c r="M380" s="6">
+        <v>1746</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16143,8 +16155,8 @@
       <c r="L381" s="4">
         <v>13</v>
       </c>
-      <c r="M381" s="5">
-        <v>1.7470000000000001</v>
+      <c r="M381" s="6">
+        <v>1747</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16184,8 +16196,8 @@
       <c r="L382" s="4">
         <v>25</v>
       </c>
-      <c r="M382" s="5">
-        <v>1.726</v>
+      <c r="M382" s="6">
+        <v>1726</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16199,8 +16211,8 @@
       <c r="D383" s="4">
         <v>41</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.1419999999999999</v>
+      <c r="E383" s="5">
+        <v>1142</v>
       </c>
       <c r="F383" s="4">
         <v>167</v>
@@ -16223,8 +16235,8 @@
       <c r="L383" s="4">
         <v>29</v>
       </c>
-      <c r="M383" s="5">
-        <v>1.845</v>
+      <c r="M383" s="6">
+        <v>1845</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16264,8 +16276,8 @@
       <c r="L384" s="4">
         <v>34</v>
       </c>
-      <c r="M384" s="5">
-        <v>1.5860000000000001</v>
+      <c r="M384" s="6">
+        <v>1586</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16279,8 +16291,8 @@
       <c r="D385" s="4">
         <v>86</v>
       </c>
-      <c r="E385" s="4">
-        <v>1.278</v>
+      <c r="E385" s="5">
+        <v>1278</v>
       </c>
       <c r="F385" s="4">
         <v>107</v>
@@ -16303,8 +16315,8 @@
       <c r="L385" s="4">
         <v>45</v>
       </c>
-      <c r="M385" s="5">
-        <v>1.843</v>
+      <c r="M385" s="6">
+        <v>1843</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16344,8 +16356,8 @@
       <c r="L386" s="4">
         <v>37</v>
       </c>
-      <c r="M386" s="5">
-        <v>1.764</v>
+      <c r="M386" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16359,8 +16371,8 @@
       <c r="D387" s="4">
         <v>156</v>
       </c>
-      <c r="E387" s="4">
-        <v>1.393</v>
+      <c r="E387" s="5">
+        <v>1393</v>
       </c>
       <c r="F387" s="4">
         <v>66</v>
@@ -16383,8 +16395,8 @@
       <c r="L387" s="4">
         <v>43</v>
       </c>
-      <c r="M387" s="5">
-        <v>1.9470000000000001</v>
+      <c r="M387" s="6">
+        <v>1947</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16424,8 +16436,8 @@
       <c r="L388" s="4">
         <v>52</v>
       </c>
-      <c r="M388" s="5">
-        <v>1.321</v>
+      <c r="M388" s="6">
+        <v>1321</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16439,8 +16451,8 @@
       <c r="D389" s="4">
         <v>221</v>
       </c>
-      <c r="E389" s="4">
-        <v>1.07</v>
+      <c r="E389" s="5">
+        <v>1070</v>
       </c>
       <c r="F389" s="4">
         <v>23</v>
@@ -16463,8 +16475,8 @@
       <c r="L389" s="4">
         <v>42</v>
       </c>
-      <c r="M389" s="5">
-        <v>1.5640000000000001</v>
+      <c r="M389" s="6">
+        <v>1564</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16504,8 +16516,8 @@
       <c r="L390" s="4">
         <v>43</v>
       </c>
-      <c r="M390" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M390" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16543,8 +16555,8 @@
       <c r="L391" s="4">
         <v>37</v>
       </c>
-      <c r="M391" s="5">
-        <v>1.319</v>
+      <c r="M391" s="6">
+        <v>1319</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16584,8 +16596,8 @@
       <c r="L392" s="4">
         <v>37</v>
       </c>
-      <c r="M392" s="5">
-        <v>1.3759999999999999</v>
+      <c r="M392" s="6">
+        <v>1376</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16599,8 +16611,8 @@
       <c r="D393" s="4">
         <v>529</v>
       </c>
-      <c r="E393" s="4">
-        <v>1.04</v>
+      <c r="E393" s="5">
+        <v>1040</v>
       </c>
       <c r="F393" s="4">
         <v>4</v>
@@ -16623,47 +16635,47 @@
       <c r="L393" s="4">
         <v>35</v>
       </c>
-      <c r="M393" s="5">
-        <v>2.1760000000000002</v>
+      <c r="M393" s="6">
+        <v>2176</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>1.056</v>
-      </c>
-      <c r="D394" s="5">
-        <v>1.851</v>
-      </c>
-      <c r="E394" s="5">
-        <v>13.933</v>
-      </c>
-      <c r="F394" s="5">
-        <v>3.4689999999999999</v>
-      </c>
-      <c r="G394" s="5">
-        <v>5.3150000000000004</v>
-      </c>
-      <c r="H394" s="5">
-        <v>9.7170000000000005</v>
-      </c>
-      <c r="I394" s="5">
-        <v>5.218</v>
-      </c>
-      <c r="J394" s="5">
+      <c r="B394" s="7"/>
+      <c r="C394" s="6">
+        <v>1056</v>
+      </c>
+      <c r="D394" s="6">
+        <v>1851</v>
+      </c>
+      <c r="E394" s="6">
+        <v>13933</v>
+      </c>
+      <c r="F394" s="6">
+        <v>3469</v>
+      </c>
+      <c r="G394" s="6">
+        <v>5315</v>
+      </c>
+      <c r="H394" s="6">
+        <v>9717</v>
+      </c>
+      <c r="I394" s="6">
+        <v>5218</v>
+      </c>
+      <c r="J394" s="9">
         <v>503</v>
       </c>
-      <c r="K394" s="5">
+      <c r="K394" s="9">
         <v>30</v>
       </c>
-      <c r="L394" s="5">
+      <c r="L394" s="9">
         <v>631</v>
       </c>
-      <c r="M394" s="5">
-        <v>41.722999999999999</v>
+      <c r="M394" s="6">
+        <v>41723</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16727,8 +16739,8 @@
       <c r="G396" s="4">
         <v>625</v>
       </c>
-      <c r="H396" s="4">
-        <v>1.103</v>
+      <c r="H396" s="5">
+        <v>1103</v>
       </c>
       <c r="I396" s="4">
         <v>156</v>
@@ -16742,8 +16754,8 @@
       <c r="L396" s="4">
         <v>20</v>
       </c>
-      <c r="M396" s="5">
-        <v>1.9119999999999999</v>
+      <c r="M396" s="6">
+        <v>1912</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16781,8 +16793,8 @@
       <c r="L397" s="4">
         <v>3</v>
       </c>
-      <c r="M397" s="5">
-        <v>1.867</v>
+      <c r="M397" s="6">
+        <v>1867</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16822,8 +16834,8 @@
       <c r="L398" s="4">
         <v>2</v>
       </c>
-      <c r="M398" s="5">
-        <v>1.204</v>
+      <c r="M398" s="6">
+        <v>1204</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16861,8 +16873,8 @@
       <c r="L399" s="4">
         <v>14</v>
       </c>
-      <c r="M399" s="5">
-        <v>1.081</v>
+      <c r="M399" s="6">
+        <v>1081</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16902,8 +16914,8 @@
       <c r="L400" s="4">
         <v>3</v>
       </c>
-      <c r="M400" s="5">
-        <v>1.093</v>
+      <c r="M400" s="6">
+        <v>1093</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16941,8 +16953,8 @@
       <c r="L401" s="4">
         <v>5</v>
       </c>
-      <c r="M401" s="5">
-        <v>1.02</v>
+      <c r="M401" s="6">
+        <v>1020</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16982,8 +16994,8 @@
       <c r="L402" s="4">
         <v>7</v>
       </c>
-      <c r="M402" s="5">
-        <v>1.1819999999999999</v>
+      <c r="M402" s="6">
+        <v>1182</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -17021,8 +17033,8 @@
       <c r="L403" s="4">
         <v>5</v>
       </c>
-      <c r="M403" s="5">
-        <v>1.038</v>
+      <c r="M403" s="6">
+        <v>1038</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17062,8 +17074,8 @@
       <c r="L404" s="4">
         <v>6</v>
       </c>
-      <c r="M404" s="5">
-        <v>1.2529999999999999</v>
+      <c r="M404" s="6">
+        <v>1253</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17101,8 +17113,8 @@
       <c r="L405" s="4">
         <v>6</v>
       </c>
-      <c r="M405" s="5">
-        <v>1.173</v>
+      <c r="M405" s="6">
+        <v>1173</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17142,8 +17154,8 @@
       <c r="L406" s="4">
         <v>15</v>
       </c>
-      <c r="M406" s="5">
-        <v>1.1719999999999999</v>
+      <c r="M406" s="6">
+        <v>1172</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17181,8 +17193,8 @@
       <c r="L407" s="4">
         <v>11</v>
       </c>
-      <c r="M407" s="5">
-        <v>1.23</v>
+      <c r="M407" s="6">
+        <v>1230</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17222,8 +17234,8 @@
       <c r="L408" s="4">
         <v>11</v>
       </c>
-      <c r="M408" s="5">
-        <v>1.3149999999999999</v>
+      <c r="M408" s="6">
+        <v>1315</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17261,8 +17273,8 @@
       <c r="L409" s="4">
         <v>9</v>
       </c>
-      <c r="M409" s="5">
-        <v>1.3220000000000001</v>
+      <c r="M409" s="6">
+        <v>1322</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17302,8 +17314,8 @@
       <c r="L410" s="4">
         <v>7</v>
       </c>
-      <c r="M410" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M410" s="6">
+        <v>1267</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17341,8 +17353,8 @@
       <c r="L411" s="4">
         <v>12</v>
       </c>
-      <c r="M411" s="5">
-        <v>1.319</v>
+      <c r="M411" s="6">
+        <v>1319</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17382,8 +17394,8 @@
       <c r="L412" s="4">
         <v>8</v>
       </c>
-      <c r="M412" s="5">
-        <v>1.3660000000000001</v>
+      <c r="M412" s="6">
+        <v>1366</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17397,8 +17409,8 @@
       <c r="D413" s="4">
         <v>145</v>
       </c>
-      <c r="E413" s="4">
-        <v>1.0029999999999999</v>
+      <c r="E413" s="5">
+        <v>1003</v>
       </c>
       <c r="F413" s="4">
         <v>38</v>
@@ -17421,8 +17433,8 @@
       <c r="L413" s="4">
         <v>7</v>
       </c>
-      <c r="M413" s="5">
-        <v>1.319</v>
+      <c r="M413" s="6">
+        <v>1319</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17462,8 +17474,8 @@
       <c r="L414" s="4">
         <v>4</v>
       </c>
-      <c r="M414" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M414" s="6">
+        <v>1031</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17501,8 +17513,8 @@
       <c r="L415" s="4">
         <v>8</v>
       </c>
-      <c r="M415" s="5">
-        <v>1.19</v>
+      <c r="M415" s="6">
+        <v>1190</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17542,7 +17554,7 @@
       <c r="L416" s="4">
         <v>12</v>
       </c>
-      <c r="M416" s="5">
+      <c r="M416" s="9">
         <v>808</v>
       </c>
     </row>
@@ -17581,7 +17593,7 @@
       <c r="L417" s="4">
         <v>7</v>
       </c>
-      <c r="M417" s="5">
+      <c r="M417" s="9">
         <v>894</v>
       </c>
     </row>
@@ -17622,7 +17634,7 @@
       <c r="L418" s="4">
         <v>9</v>
       </c>
-      <c r="M418" s="5">
+      <c r="M418" s="9">
         <v>990</v>
       </c>
     </row>
@@ -17661,47 +17673,47 @@
       <c r="L419" s="4">
         <v>13</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.58</v>
+      <c r="M419" s="6">
+        <v>1580</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B420" s="6"/>
-      <c r="C420" s="5">
+      <c r="B420" s="7"/>
+      <c r="C420" s="9">
         <v>939</v>
       </c>
-      <c r="D420" s="5">
-        <v>1.512</v>
-      </c>
-      <c r="E420" s="5">
-        <v>10.622999999999999</v>
-      </c>
-      <c r="F420" s="5">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="G420" s="5">
-        <v>5.2460000000000004</v>
-      </c>
-      <c r="H420" s="5">
-        <v>5.6429999999999998</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.825</v>
-      </c>
-      <c r="J420" s="5">
+      <c r="D420" s="6">
+        <v>1512</v>
+      </c>
+      <c r="E420" s="6">
+        <v>10623</v>
+      </c>
+      <c r="F420" s="6">
+        <v>3493</v>
+      </c>
+      <c r="G420" s="6">
+        <v>5246</v>
+      </c>
+      <c r="H420" s="6">
+        <v>5643</v>
+      </c>
+      <c r="I420" s="6">
+        <v>1825</v>
+      </c>
+      <c r="J420" s="9">
         <v>130</v>
       </c>
-      <c r="K420" s="5">
+      <c r="K420" s="9">
         <v>11</v>
       </c>
-      <c r="L420" s="5">
+      <c r="L420" s="9">
         <v>204</v>
       </c>
-      <c r="M420" s="5">
-        <v>29.626000000000001</v>
+      <c r="M420" s="6">
+        <v>29626</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17780,7 +17792,7 @@
       <c r="L422" s="4">
         <v>4</v>
       </c>
-      <c r="M422" s="5">
+      <c r="M422" s="9">
         <v>521</v>
       </c>
     </row>
@@ -17819,7 +17831,7 @@
       <c r="L423" s="4">
         <v>2</v>
       </c>
-      <c r="M423" s="5">
+      <c r="M423" s="9">
         <v>534</v>
       </c>
     </row>
@@ -17860,7 +17872,7 @@
       <c r="L424" s="4">
         <v>1</v>
       </c>
-      <c r="M424" s="5">
+      <c r="M424" s="9">
         <v>363</v>
       </c>
     </row>
@@ -17899,7 +17911,7 @@
       <c r="L425" s="4">
         <v>1</v>
       </c>
-      <c r="M425" s="5">
+      <c r="M425" s="9">
         <v>303</v>
       </c>
     </row>
@@ -17940,7 +17952,7 @@
       <c r="L426" s="4">
         <v>1</v>
       </c>
-      <c r="M426" s="5">
+      <c r="M426" s="9">
         <v>282</v>
       </c>
     </row>
@@ -17979,7 +17991,7 @@
       <c r="L427" s="4">
         <v>1</v>
       </c>
-      <c r="M427" s="5">
+      <c r="M427" s="9">
         <v>271</v>
       </c>
     </row>
@@ -18020,7 +18032,7 @@
       <c r="L428" s="4">
         <v>3</v>
       </c>
-      <c r="M428" s="5">
+      <c r="M428" s="9">
         <v>352</v>
       </c>
     </row>
@@ -18059,7 +18071,7 @@
       <c r="L429" s="4">
         <v>2</v>
       </c>
-      <c r="M429" s="5">
+      <c r="M429" s="9">
         <v>325</v>
       </c>
     </row>
@@ -18100,7 +18112,7 @@
       <c r="L430" s="4">
         <v>3</v>
       </c>
-      <c r="M430" s="5">
+      <c r="M430" s="9">
         <v>436</v>
       </c>
     </row>
@@ -18139,7 +18151,7 @@
       <c r="L431" s="4">
         <v>5</v>
       </c>
-      <c r="M431" s="5">
+      <c r="M431" s="9">
         <v>399</v>
       </c>
     </row>
@@ -18180,7 +18192,7 @@
       <c r="L432" s="4">
         <v>4</v>
       </c>
-      <c r="M432" s="5">
+      <c r="M432" s="9">
         <v>420</v>
       </c>
     </row>
@@ -18219,7 +18231,7 @@
       <c r="L433" s="4">
         <v>2</v>
       </c>
-      <c r="M433" s="5">
+      <c r="M433" s="9">
         <v>464</v>
       </c>
     </row>
@@ -18260,7 +18272,7 @@
       <c r="L434" s="4">
         <v>5</v>
       </c>
-      <c r="M434" s="5">
+      <c r="M434" s="9">
         <v>549</v>
       </c>
     </row>
@@ -18299,7 +18311,7 @@
       <c r="L435" s="4">
         <v>6</v>
       </c>
-      <c r="M435" s="5">
+      <c r="M435" s="9">
         <v>565</v>
       </c>
     </row>
@@ -18340,7 +18352,7 @@
       <c r="L436" s="4">
         <v>7</v>
       </c>
-      <c r="M436" s="5">
+      <c r="M436" s="9">
         <v>553</v>
       </c>
     </row>
@@ -18379,7 +18391,7 @@
       <c r="L437" s="4">
         <v>6</v>
       </c>
-      <c r="M437" s="5">
+      <c r="M437" s="9">
         <v>642</v>
       </c>
     </row>
@@ -18420,7 +18432,7 @@
       <c r="L438" s="4">
         <v>5</v>
       </c>
-      <c r="M438" s="5">
+      <c r="M438" s="9">
         <v>675</v>
       </c>
     </row>
@@ -18459,7 +18471,7 @@
       <c r="L439" s="4">
         <v>3</v>
       </c>
-      <c r="M439" s="5">
+      <c r="M439" s="9">
         <v>708</v>
       </c>
     </row>
@@ -18500,7 +18512,7 @@
       <c r="L440" s="4">
         <v>4</v>
       </c>
-      <c r="M440" s="5">
+      <c r="M440" s="9">
         <v>590</v>
       </c>
     </row>
@@ -18539,7 +18551,7 @@
       <c r="L441" s="4">
         <v>4</v>
       </c>
-      <c r="M441" s="5">
+      <c r="M441" s="9">
         <v>667</v>
       </c>
     </row>
@@ -18580,7 +18592,7 @@
       <c r="L442" s="4">
         <v>4</v>
       </c>
-      <c r="M442" s="5">
+      <c r="M442" s="9">
         <v>502</v>
       </c>
     </row>
@@ -18619,7 +18631,7 @@
       <c r="L443" s="4">
         <v>6</v>
       </c>
-      <c r="M443" s="5">
+      <c r="M443" s="9">
         <v>568</v>
       </c>
     </row>
@@ -18660,7 +18672,7 @@
       <c r="L444" s="4">
         <v>3</v>
       </c>
-      <c r="M444" s="5">
+      <c r="M444" s="9">
         <v>479</v>
       </c>
     </row>
@@ -18699,7 +18711,7 @@
       <c r="L445" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M445" s="5">
+      <c r="M445" s="9">
         <v>842</v>
       </c>
     </row>
@@ -18707,39 +18719,39 @@
       <c r="A446" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B446" s="6"/>
-      <c r="C446" s="5">
+      <c r="B446" s="7"/>
+      <c r="C446" s="9">
         <v>248</v>
       </c>
-      <c r="D446" s="5">
+      <c r="D446" s="9">
         <v>610</v>
       </c>
-      <c r="E446" s="5">
-        <v>3.8610000000000002</v>
-      </c>
-      <c r="F446" s="5">
+      <c r="E446" s="6">
+        <v>3861</v>
+      </c>
+      <c r="F446" s="9">
         <v>696</v>
       </c>
-      <c r="G446" s="5">
-        <v>1.8620000000000001</v>
-      </c>
-      <c r="H446" s="5">
-        <v>3.2130000000000001</v>
-      </c>
-      <c r="I446" s="5">
-        <v>1.3480000000000001</v>
-      </c>
-      <c r="J446" s="5">
+      <c r="G446" s="6">
+        <v>1862</v>
+      </c>
+      <c r="H446" s="6">
+        <v>3213</v>
+      </c>
+      <c r="I446" s="6">
+        <v>1348</v>
+      </c>
+      <c r="J446" s="9">
         <v>83</v>
       </c>
-      <c r="K446" s="5">
+      <c r="K446" s="9">
         <v>7</v>
       </c>
-      <c r="L446" s="5">
+      <c r="L446" s="9">
         <v>82</v>
       </c>
-      <c r="M446" s="5">
-        <v>12.01</v>
+      <c r="M446" s="6">
+        <v>12010</v>
       </c>
     </row>
     <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -18803,8 +18815,8 @@
       <c r="G448" s="4">
         <v>510</v>
       </c>
-      <c r="H448" s="4">
-        <v>1.022</v>
+      <c r="H448" s="5">
+        <v>1022</v>
       </c>
       <c r="I448" s="4">
         <v>147</v>
@@ -18818,8 +18830,8 @@
       <c r="L448" s="4">
         <v>11</v>
       </c>
-      <c r="M448" s="5">
-        <v>1.7030000000000001</v>
+      <c r="M448" s="6">
+        <v>1703</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
@@ -18857,8 +18869,8 @@
       <c r="L449" s="4">
         <v>2</v>
       </c>
-      <c r="M449" s="5">
-        <v>1.6970000000000001</v>
+      <c r="M449" s="6">
+        <v>1697</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
@@ -18898,7 +18910,7 @@
       <c r="L450" s="4">
         <v>3</v>
       </c>
-      <c r="M450" s="5">
+      <c r="M450" s="9">
         <v>998</v>
       </c>
     </row>
@@ -18937,7 +18949,7 @@
       <c r="L451" s="4">
         <v>4</v>
       </c>
-      <c r="M451" s="5">
+      <c r="M451" s="9">
         <v>977</v>
       </c>
     </row>
@@ -18978,7 +18990,7 @@
       <c r="L452" s="4">
         <v>3</v>
       </c>
-      <c r="M452" s="5">
+      <c r="M452" s="9">
         <v>965</v>
       </c>
     </row>
@@ -19017,7 +19029,7 @@
       <c r="L453" s="4">
         <v>3</v>
       </c>
-      <c r="M453" s="5">
+      <c r="M453" s="9">
         <v>995</v>
       </c>
     </row>
@@ -19058,8 +19070,8 @@
       <c r="L454" s="4">
         <v>1</v>
       </c>
-      <c r="M454" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M454" s="6">
+        <v>1112</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
@@ -19097,8 +19109,8 @@
       <c r="L455" s="4">
         <v>1</v>
       </c>
-      <c r="M455" s="5">
-        <v>1.1040000000000001</v>
+      <c r="M455" s="6">
+        <v>1104</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
@@ -19138,8 +19150,8 @@
       <c r="L456" s="4">
         <v>6</v>
       </c>
-      <c r="M456" s="5">
-        <v>1.17</v>
+      <c r="M456" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
@@ -19177,8 +19189,8 @@
       <c r="L457" s="4">
         <v>1</v>
       </c>
-      <c r="M457" s="5">
-        <v>1.087</v>
+      <c r="M457" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
@@ -19218,8 +19230,8 @@
       <c r="L458" s="4">
         <v>1</v>
       </c>
-      <c r="M458" s="5">
-        <v>1.1619999999999999</v>
+      <c r="M458" s="6">
+        <v>1162</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
@@ -19257,8 +19269,8 @@
       <c r="L459" s="4">
         <v>3</v>
       </c>
-      <c r="M459" s="5">
-        <v>1.1990000000000001</v>
+      <c r="M459" s="6">
+        <v>1199</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
@@ -19298,8 +19310,8 @@
       <c r="L460" s="4">
         <v>2</v>
       </c>
-      <c r="M460" s="5">
-        <v>1.1739999999999999</v>
+      <c r="M460" s="6">
+        <v>1174</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
@@ -19337,8 +19349,8 @@
       <c r="L461" s="4">
         <v>6</v>
       </c>
-      <c r="M461" s="5">
-        <v>1.1870000000000001</v>
+      <c r="M461" s="6">
+        <v>1187</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -19378,8 +19390,8 @@
       <c r="L462" s="4">
         <v>4</v>
       </c>
-      <c r="M462" s="5">
-        <v>1.1739999999999999</v>
+      <c r="M462" s="6">
+        <v>1174</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
@@ -19417,8 +19429,8 @@
       <c r="L463" s="4">
         <v>5</v>
       </c>
-      <c r="M463" s="5">
-        <v>1.2689999999999999</v>
+      <c r="M463" s="6">
+        <v>1269</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
@@ -19458,8 +19470,8 @@
       <c r="L464" s="4">
         <v>2</v>
       </c>
-      <c r="M464" s="5">
-        <v>1.2569999999999999</v>
+      <c r="M464" s="6">
+        <v>1257</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
@@ -19473,8 +19485,8 @@
       <c r="D465" s="4">
         <v>119</v>
       </c>
-      <c r="E465" s="4">
-        <v>1.0029999999999999</v>
+      <c r="E465" s="5">
+        <v>1003</v>
       </c>
       <c r="F465" s="4">
         <v>85</v>
@@ -19497,8 +19509,8 @@
       <c r="L465" s="4">
         <v>1</v>
       </c>
-      <c r="M465" s="5">
-        <v>1.3320000000000001</v>
+      <c r="M465" s="6">
+        <v>1332</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
@@ -19538,7 +19550,7 @@
       <c r="L466" s="4">
         <v>2</v>
       </c>
-      <c r="M466" s="5">
+      <c r="M466" s="9">
         <v>921</v>
       </c>
     </row>
@@ -19577,8 +19589,8 @@
       <c r="L467" s="4">
         <v>2</v>
       </c>
-      <c r="M467" s="5">
-        <v>1.0609999999999999</v>
+      <c r="M467" s="6">
+        <v>1061</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
@@ -19618,7 +19630,7 @@
       <c r="L468" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M468" s="5">
+      <c r="M468" s="9">
         <v>686</v>
       </c>
     </row>
@@ -19657,7 +19669,7 @@
       <c r="L469" s="4">
         <v>6</v>
       </c>
-      <c r="M469" s="5">
+      <c r="M469" s="9">
         <v>895</v>
       </c>
     </row>
@@ -19698,7 +19710,7 @@
       <c r="L470" s="4">
         <v>8</v>
       </c>
-      <c r="M470" s="5">
+      <c r="M470" s="9">
         <v>912</v>
       </c>
     </row>
@@ -19737,51 +19749,66 @@
       <c r="L471" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M471" s="5">
-        <v>1.3560000000000001</v>
+      <c r="M471" s="6">
+        <v>1356</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B472" s="6"/>
-      <c r="C472" s="5">
+      <c r="B472" s="7"/>
+      <c r="C472" s="9">
         <v>612</v>
       </c>
-      <c r="D472" s="5">
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="E472" s="5">
-        <v>9.9309999999999992</v>
-      </c>
-      <c r="F472" s="5">
-        <v>3.056</v>
-      </c>
-      <c r="G472" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="H472" s="5">
-        <v>5.641</v>
-      </c>
-      <c r="I472" s="5">
-        <v>2.5910000000000002</v>
-      </c>
-      <c r="J472" s="5">
+      <c r="D472" s="6">
+        <v>1314</v>
+      </c>
+      <c r="E472" s="6">
+        <v>9931</v>
+      </c>
+      <c r="F472" s="6">
+        <v>3056</v>
+      </c>
+      <c r="G472" s="6">
+        <v>3900</v>
+      </c>
+      <c r="H472" s="6">
+        <v>5641</v>
+      </c>
+      <c r="I472" s="6">
+        <v>2591</v>
+      </c>
+      <c r="J472" s="9">
         <v>251</v>
       </c>
-      <c r="K472" s="5">
+      <c r="K472" s="9">
         <v>20</v>
       </c>
-      <c r="L472" s="5">
+      <c r="L472" s="9">
         <v>77</v>
       </c>
-      <c r="M472" s="5">
-        <v>27.393000000000001</v>
+      <c r="M472" s="6">
+        <v>27393</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A473" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A474" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
     <mergeCell ref="A421:B421"/>
     <mergeCell ref="A447:B447"/>
     <mergeCell ref="A161:B161"/>
@@ -19790,11 +19817,6 @@
     <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
